--- a/upload_terms/Sleep_disturbance_HP-0002360.xlsx
+++ b/upload_terms/Sleep_disturbance_HP-0002360.xlsx
@@ -1,2253 +1,2266 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akyocum/Documents/hpo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9A07C1-9E7E-BA42-B14C-DABAC4DD2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="24240" yWindow="500" windowWidth="44560" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Terms" r:id="rId3" sheetId="1"/>
+    <sheet name="Terms" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4615" uniqueCount="739">
-  <si>
-    <t xml:space="preserve">termLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rootTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melvin Reviewed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include In Abnormal Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include In Survey Parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include in Survey Clinical Sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILDREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYNONYM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termComment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUGGESTED CHILDREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentHpoLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childrenHpoLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hierarchyText</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hpoLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synAndTypeDoNotDelete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIBUTORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETED BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numCurators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numSynonyms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUGGESTED PARENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelAndId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formSummary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentsDoNotDelete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childrenDoNotDelete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">labelTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synonymsTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termCommentTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allTermAttributesTimestamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nextTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nextTermLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">termRecordId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandparents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parentLabelStringImport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">synonymStringImport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pmidStrinImport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIBUTIONS 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isFinalTerm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unchecked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep disturbance, All, Abnormality of the nervous system, Abnormal nervous system physiology, Phenotypic abnormality, Abnormality of mental function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002360, HP:0000001, HP:0000707, HP:0012638, HP:0000118, HP:0011446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive daytime somnolence, Abnormal rapid eye movement sleep, Sleep-wake cycle disturbance, Parasomnia, Excessive sleep, Narcolepsy, Insomnia, Hypersomnia, Poor sleep, Decreased need for sleep, Sleep-related breathing disorders, Abnormal sleep architecture, Paradoxical insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0001262, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0030050, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0100786, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:5200276, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:5200305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty sleeping, Sleep abnormality, Sleep disturbances, Sleep dysfunction, Sleep-wake disturbance, Trouble sleeping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An abnormal pattern in the quality, quantity, or characteristics of sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep disturbance (HP:0002360)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N2 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, Prolonged N2 sleep, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200363, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:5200358, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200358, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased duration of phase N2 of nonrapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N2 sleep (HP:5200358)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep talking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system, Sleep talking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:5200300, HP:0000001, HP:0000707, HP:0025187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vocalization (production of recognizable words or other sounds) during sleep with lack of awareness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep talking (HP:0025187)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N3 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Prolonged N3 sleep, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200363, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:5200359, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200359, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased duration of phase N3 of nonrapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N3 sleep (HP:5200359)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep onset rapid eye movement period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Abnormal sleep architecture, Sleep disturbance, Abnormal rapid eye movement sleep, Abnormality of the nervous system, Parasomnia, Phenotypic abnormality, Abnormality of mental function, Sleep onset rapid eye movement period, Sleep-wake transition abnormality, All, Abnormal transition from sleep to wakefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:5200298, HP:0002360, HP:0002494, HP:0000707, HP:0025234, HP:0000118, HP:0011446, HP:5200356, HP:5200293, HP:0000001, HP:5200296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200356, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOREMP, Sleep-onset (REM) period, Sleep-onset rapid eye movement (REM) period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entering REM sleep immediately upon falling asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The NREM stages of sleep are not skipped.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep onset rapid eye movement period (HP:5200356)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N1 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, Prolonged N1 sleep, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200363, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:5200357, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200357, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased duration of phase N1 of nonrapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N1 sleep (HP:5200357)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, REM parasomnia, Abnormal rapid eye movement sleep, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep paralysis, Parasomnia, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from sleep to wakefulness, Hypnagogic sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:5200299, HP:0002494, HP:0000118, HP:0002360, HP:0011446, HP:0025233, HP:0025234, HP:0000707, HP:0000001, HP:5200293, HP:5200296, HP:5200352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:5200352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inability to move while falling asleep, Predormital sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis that occurs when falling asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During sleep paralysis, a person often hallucinates sounds or sensations, such as the presence of a person in the room or even on their chest. If sleep paralysis and these hallucinations occur as a person is falling asleep, they are considered hypnagogic hallucinations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic sleep paralysis (HP:5200352)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Snoring, All, Sleep-related breathing disorders, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0025267, HP:0000001, HP:5200283, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025267, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loud snoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snore, Snores, Snoring symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deep, noisy breathing during sleep, accompanied by hoarse or harsh sounds, is caused by the vibration of respiratory structures, especially the soft palate. This vibration results in sound due to obstructed air movement during breathing while sleeping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snoring (HP:0025267)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnopompic sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnopompic sleep paralysis, REM parasomnia, Abnormal rapid eye movement sleep, Abnormal nervous system physiology, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep paralysis, Parasomnia, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from wakefulness to sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200353, HP:5200299, HP:0002494, HP:0012638, HP:0000118, HP:0002360, HP:0011446, HP:0025233, HP:0025234, HP:0000707, HP:0000001, HP:5200293, HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200353, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inability to move while awakening, Postdormital paralysis, Postdormital sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis that occurs when waking up from sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnopompic sleep paralysis (HP:5200353)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnic jerks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnic jerks, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025189, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:5200300, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025189, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep starts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnic jerks are characterized by sudden and brief (less than 1 second), non-periodic simultaneous contractions of the whole body or one or more extremities at the onset of sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although hypnic jerks are generally benign, there have been increasing reports of excessive hypnic jerks in neurological disorders such as Parkinsonism, migraine, and brainstem lesions and children with neurologic disorders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnic jerks (HP:0025189)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreased need for sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Decreased need for sleep, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:5200276, HP:0000118, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200276, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There has been a noticeable decrease in the need for sleep, where individuals feel refreshed even with minimal or no sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreased need for sleep (HP:5200276)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arousal parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Arousal parasomnia, Abnormality of the nervous system, Parasomnia, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0025184, HP:0000707, HP:0025234, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep terror, Recurrent distressing nightmares, Sleep-related eating behavior, Sleep drunkeness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0030765, https://hpo.jax.org/browse/term/HP:5200287, https://hpo.jax.org/browse/term/HP:5200288, https://hpo.jax.org/browse/term/HP:6000456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arousal related sleep disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An altered state of arousal during sleep that may be reported by the individual or an observation of others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arousal parasomnia (HP:0025184)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged REM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal rapid eye movement sleep, Prolonged REM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002494, HP:5200361, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:5200361, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged rapid eye movement sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged REM sleep (HP:5200361)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episodic hypersomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduced consciousness, Abnormality of mental function, Abnormal nervous system physiology, Sleep disturbance, Hypersomnia, Abnormality of the nervous system, Drowsiness, Episodic hypersomnia, Phenotypic abnormality, All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0004372, HP:0011446, HP:0012638, HP:0002360, HP:0100786, HP:0000707, HP:0002329, HP:0007200, HP:0000118, HP:0000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0004372, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0100786, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0002329, https://hpo.jax.org/browse/term/HP:0007200, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0007200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idiopathic hypersomnia, Recurrent hypersomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent episodes of hypersomnia (sleeping 16 or more hours a day) over a period of days or weeks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This feature is characteristic of Kleine-Levin syndrome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0007200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episodic hypersomnia (HP:0007200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short NREM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Short NREM sleep, Abnormal sleep architecture, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:5200362, HP:5200298, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N1 sleep, Short N2 sleep, Short N3 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200304, https://hpo.jax.org/browse/term/HP:5200307, https://hpo.jax.org/browse/term/HP:5200309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short NREM sleep (HP:5200362)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short REM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal rapid eye movement sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system, Short REM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002494, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707, HP:5200360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short rapid eye movement sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short REM sleep (HP:5200360)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-related breathing disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Sleep-related breathing disorders, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:5200283, HP:0000118, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep apnea, Snoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0010535, https://hpo.jax.org/browse/term/HP:0025267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficult respiration during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions of abnormal and difficult respiration during sleep, including chronic snoring and sleep apnea.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-related breathing disorders (HP:5200283)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruxism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent maladaptive behavior, Motor stereotypy, Parasomnia, Stereotypic movements of face and head, Abnormality of mental function, Phenotypic abnormality, Bruxism, All, Restricted or repetitive behaviors or interests, Abnormal movement during sleep, Abnormal nervous system physiology, Abnormality of the nervous system, Sleep disturbance, Atypical behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200241, HP:0000733, HP:0025234, HP:5200017, HP:0011446, HP:0000118, HP:0003763, HP:0000001, HP:0031432, HP:5200300, HP:0012638, HP:0000707, HP:0002360, HP:0000708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200241, https://hpo.jax.org/browse/term/HP:0000733, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200017, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0003763, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0031432, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0003763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teeth grinding, Grinding teeth during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruxism is characterized by the grinding of the teeth including the clenching of the jaw and typically occur during sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rarely, bruxism can occur while the affected individual is awake, but this is less likely to result in the need for medical attention.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0003763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruxism (HP:0003763)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extended nighttime sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Extended nighttime sleep, Abnormality of the nervous system, Excessive sleep, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0025298, HP:0000707, HP:0025288, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025298, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long nighttime sleep, Prolonged nocturnal sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleeping for a longer duration than usual during the night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extended nighttime sleep (HP:0025298)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake cycle disturbance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Sleep-wake cycle disturbance, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0006979, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free-running sleep pattern, Sleep-wake inversion, Early chronotype, Late chronotype, Shortened sleep phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025365, https://hpo.jax.org/browse/term/HP:0031849, https://hpo.jax.org/browse/term/HP:0031873, https://hpo.jax.org/browse/term/HP:0031874, https://hpo.jax.org/browse/term/HP:0033063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0006979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal-clock disorders, Sleep phase disturbance, Sleep-wake cycle disorders, Sleep-wake cycle disturbance, Sleep-wake mistiming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any abnormality of an individual's circadian rhythm that affects the timing of sleeping and being awake is referred to as a sleep-wake disorder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Often, patients complain of insomnia when their desired sleep-wake cycle is inconsistent with their intrinsic rhythms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0006979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake cycle disturbance (HP:0006979)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstructive sleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep-related breathing disorders, Abnormal nervous system physiology, All, Abnormality of the nervous system, Sleep apnea, Obstructive sleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0011446, HP:5200283, HP:0012638, HP:0000001, HP:0000707, HP:0010535, HP:0002870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0010535, https://hpo.jax.org/browse/term/HP:0002870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstructive sleep apnoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstructive Sleep Apnea is a condition characterized by the obstruction of the airway and pauses in breathing during sleep, which occur multiple times throughout the night. It is related to the relaxation of muscle tone that typically happens during sleep, leading to a partial collapse of the soft tissues in the airway and causing airflow obstruction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstructive sleep apnea (HP:0002870)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep-related breathing disorders, Abnormal nervous system physiology, All, Loud snoring, Abnormality of the nervous system, Snoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0011446, HP:5200283, HP:0012638, HP:0000001, HP:0025372, HP:0000707, HP:0025267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0025372, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has loud snoring, Have loud snoring, Heavy snoring, Snores loudly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snoring at a particularly loud or abnormally high volume.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loud snoring (HP:0025372)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-related eating behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Parasomnia, NREM parasomnia, Arousal parasomnia, Abnormality of the nervous system, All, Atypical behavior, Sleep-related eating behavior, Abnormal consumption behavior, Recurrent maladaptive behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0000118, HP:0002360, HP:0011446, HP:0025234, HP:0025235, HP:0025184, HP:0000707, HP:0000001, HP:0000708, HP:5200288, HP:0040202, HP:5200241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000708, https://hpo.jax.org/browse/term/HP:5200288, https://hpo.jax.org/browse/term/HP:0040202, https://hpo.jax.org/browse/term/HP:5200241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consuming food while asleep, Nocturnal sleep-related eating disorder (NS-RED), SRED, Sleep eating, Sleep-related eating disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eating during sleep with limited to no recall of involuntary eating while asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-related eating may be associated with sleep walking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-related eating behavior (HP:5200288)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Excessive sleep, All, Microsleep, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0025288, HP:0000001, HP:5200289, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200289, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short duration sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudden onset of extreme drowsiness or falling asleep during the day for a short period of time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsleep (HP:5200289)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged NREM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Prolonged NREM sleep, Abnormal sleep architecture, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:5200363, HP:5200298, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged N1 sleep, Prolonged N2 sleep, Prolonged N3 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200357, https://hpo.jax.org/browse/term/HP:5200358, https://hpo.jax.org/browse/term/HP:5200359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged NREM sleep (HP:5200363)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive daytime somnolence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduced consciousness, Sleep disturbance, Abnormal nervous system physiology, Excessive daytime somnolence, Abnormality of the nervous system, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0004372, HP:0002360, HP:0012638, HP:0001262, HP:0000707, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0004372, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0001262, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0001262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive daytime sleepiness, More than typical sleepiness during day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A state of abnormally strong desire for sleep during the daytime.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0001262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive daytime somnolence (HP:0001262)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent distressing nightmares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arousal parasomnia, REM parasomnia, Phenotypic abnormality, Sleep disturbance, Abnormal rapid eye movement sleep, Parasomnia, Recurrent distressing nightmares, Abnormality of mental function, All, Abnormality of the nervous system, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025184, HP:5200299, HP:0000118, HP:0002360, HP:0002494, HP:0025234, HP:5200287, HP:0011446, HP:0000001, HP:0000707, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200287, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disturbing dreams, Nightmare disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeated occurrence of nightmares that cause clinically significant distress or impairment in social, occupational or other important areas of functioning, which are not attributable to the physiological effects of a substance (e.g. drug abuse or medication) and which cannot be adequately explained by coexisting mental and medical disorders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent distressing nightmares (HP:5200287)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequent napping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Excessive sleep, Frequent napping, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0025288, HP:0025299, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0025299, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequent daytime naps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular episodes of sleep that occur during the day outside of the main sleep period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequent napping (HP:0025299)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep onset insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Insomnia, Sleep onset insomnia, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0100785, HP:0031354, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0031354, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0031354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty falling asleep, Early insomnia, Increased sleep latency, Sleep onset insomnia, Trouble falling asleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty initiating sleep, that is, increased sleep onset latency, refers to the condition where it takes 30 minutes or more to fall asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep onset insomnia (HP:0031354)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Insomnia, Maintenance insomnia, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0100785, HP:0031355, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0031355, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0031355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty staying asleep, Insomnia middle, Middle insomnia, Waking up several times during the night</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individuals affected by abnormal difficulty in staying asleep tend to wake up at night and struggle to return to sleep. This condition typically involves spending more than 30 minutes awake during the night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintenance insomnia (HP:0031355)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early chronotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Sleep-wake cycle disturbance, Abnormality of mental function, Early chronotype, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0006979, HP:0011446, HP:0031873, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031873, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0031873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced sleep onset, Early sleep onset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tendency towards rising very early in the morning and going to bed early in the evening.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early chronotype (HP:0031873)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Insomnia, Abnormality of mental function, Terminal insomnia, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0100785, HP:0011446, HP:0031356, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031356, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0031356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early morning awakening, Late insomnia, Premature awakening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waking up earlier than intended and being unable to return to sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminal insomnia (HP:0031356)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late chronotype</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Sleep-wake cycle disturbance, Abnormality of mental function, Late chronotype, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0006979, HP:0011446, HP:0031874, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031874, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0031874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delayed sleep onset, Late sleep onset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tendency towards waking up very late in the morning and staying up late at night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late chronotype (HP:0031874)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortened sleep phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Shortened sleep phase, Abnormality of the nervous system, All, Sleep-wake cycle disturbance, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0033063, HP:0000707, HP:0000001, HP:0006979, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0033063, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0033063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A tendency to sleep fewer hours than usual while feeling well-rested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0033063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shortened sleep phase (HP:0033063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic limb movements of sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic limb movements of sleep, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200295, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:5200300, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200295, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhythmic limb movements during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repetitive, stereotyped limb movements occurring during sleep, typically involving brief flexion of the toes, ankles, knees, or hips. These movements recur at regular intervals, often every 20-40 seconds, and may cause sleep fragmentation or daytime fatigue. PLMS commonly co-occurs with restless legs syndrome but may also occur independently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic limb movements of sleep often occurs alongside Restless Legs Syndrome (RLS). Treatment for RLS may also help with PLMS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic limb movements of sleep (HP:5200295)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition from sleep to wakefulness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition from sleep to wakefulness, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system, Sleep-wake transition abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200296, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0000001, HP:0000707, HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic hallucination, Hypnagogic sleep paralysis, Sleep onset rapid eye movement period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002519, https://hpo.jax.org/browse/term/HP:5200352, https://hpo.jax.org/browse/term/HP:5200356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal hypnagogia, Abnormality falling asleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition of consciousness from wakefulness to sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition from sleep to wakefulness (HP:5200296)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake transition abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Sleep-wake transition abnormality, Parasomnia, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:5200293, HP:0025234, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis, Sleep related hallucination, Abnormal transition from sleep to wakefulness, Abnormal transition from wakefulness to sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disturbance during transitions between sleep and wake states, Sleep state switching, Sleep-wake transition disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A parasomnia that occurs with awareness and recollection during the transition between sleep and and awake states.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake transition abnormalities include rhythmic movement disorder, sleep starts, sleep talking, and nocturnal leg cramps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake transition abnormality (HP:5200293)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexsomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, NREM parasomnia, All, Abnormality of the nervous system, Sexsomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0025235, HP:0000001, HP:0000707, HP:5200294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexual behavior during sleep, Sexual behaviour during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unintentional sexual behavior during sleep, such as masturbation, initiation of sex, or making sexual noises, is known as sexsomnia. Sexsomnia predominantly occurs during NREM sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexsomnia (HP:5200294)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM sleep behavior disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM sleep behavior disorder, REM parasomnia, Phenotypic abnormality, Sleep disturbance, Abnormal rapid eye movement sleep, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200291, HP:5200299, HP:0000118, HP:0002360, HP:0002494, HP:0025234, HP:5200300, HP:0000001, HP:0000707, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200291, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBD, REM sleep behavior disorder, REM sleep behaviour disorder, Rapid eye movement sleep behavior disorder, Rapid eye movement sleep behaviour disorder, Sleep enactment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM Sleep Behavior Disorder (RBD) is a chronic sleep condition characterized by dream enactment and loss of REM atonia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normally during rapid eye movement (REM) sleep, the body experiences temporary paralysis (REM atonia) of most of the body's muscles while the brain is active and dreaming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM sleep behavior disorder (HP:5200291)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-restorative sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Non-restorative sleep, All, Poor sleep, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:5200292, HP:0000001, HP:4000064, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200292, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-refreshing sleep, Unrefreshing sleep, Waking up tired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep that is subjectively reported as unrefreshing even though the duration is adequate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-restorative sleep (HP:5200292)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploding head syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep related hallucination, Sleep disturbance, Hallucinations, Abnormality of the nervous system, Parasomnia, Phenotypic abnormality, Exploding head syndrome, Abnormality of mental function, Sleep-wake transition abnormality, Abnormal experience of reality, All, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:4000063, HP:0002360, HP:0000738, HP:0000707, HP:0025234, HP:0000118, HP:5200290, HP:0011446, HP:5200293, HP:5200423, HP:0000001, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200290, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep disorder in which one hears a loud noise or explosive crashing sound in one's head. The sound is not real or heard by anyone else. The episode typically happens suddenly, either when beginning to fall asleep or when waking up during the night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploding head syndrome (HP:5200290)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal rapid eye movement sleep, Phenotypic abnormality, REM parasomnia, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002494, HP:0000118, HP:5200299, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis, Recurrent distressing nightmares, REM sleep behavior disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:5200287, https://hpo.jax.org/browse/term/HP:5200291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disturbance in REM, Rapid eye movement parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasomnia occurs during REM sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM parasomnia (HP:5200299)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Sleep-wake inversion, All, Sleep-wake cycle disturbance, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0031849, HP:0000001, HP:0006979, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0031849, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0031849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverted sleep-wake cycle, Reversed sleep-wake cycle, Sleep rhythm inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A reversal of sleeping habits, with a tendency to sleep during the day and be awake at night.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep-wake inversion (HP:0031849)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition from wakefulness to sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition from wakefulness to sleep, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system, Sleep-wake transition abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200297, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0000001, HP:0000707, HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200297, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnopompic hallucination, Hypnopompic sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0006896, https://hpo.jax.org/browse/term/HP:5200353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal hypnopompia, Abnormal waking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition of consciousness from sleeping to wakefulness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal transition from wakefulness to sleep (HP:5200297)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free-running sleep pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Free-running sleep pattern, All, Sleep-wake cycle disturbance, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0025365, HP:0000001, HP:0006979, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025365, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-24 sleep pattern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A condition in which the intrinsic circadian rhythm is no longer entrained to the 24-h schedule. Normal individuals who are exposed to an environment devoid of zeitgebers develop free-running rhythms with a period longer than 24 h.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free-running sleep pattern (HP:0025365)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, Excessive sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0025288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep attack, Extended nighttime sleep, Frequent napping, Microsleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002330, https://hpo.jax.org/browse/term/HP:0025298, https://hpo.jax.org/browse/term/HP:0025299, https://hpo.jax.org/browse/term/HP:5200289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prolonged sleep duration, Sleeping too much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A clinical phenomenon characterized by sleeping longer than what is typical or necessary for a person's age and context, or by recurrent episodes of sleep that intrude upon the waking hours. Excessive sleep is identified through self-reports or observations and may involve prolonged nighttime sleep, frequent daytime naps, or episodes of unintentional sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive sleep often occurs even when a person has had adequate nighttime sleep and may be associated with functional impairment, reduced alertness, or dissatisfaction with sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive sleep (HP:0025288)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal sleep architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormal sleep architecture, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:5200298, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep onset rapid eye movement period, Short REM sleep, Prolonged REM sleep, Short NREM sleep, Prolonged NREM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200356, https://hpo.jax.org/browse/term/HP:5200360, https://hpo.jax.org/browse/term/HP:5200361, https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep architecture disturbances, Sleep stage disturbances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interruptions during the various stages of sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal sleep architecture (HP:5200298)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep drunkeness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep drunkeness, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system, Arousal parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0011446, HP:6000456, HP:0012638, HP:0025234, HP:0000001, HP:0000707, HP:0025184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:6000456, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:6000456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confusional arousal, Slow speech or confused thinking upon waking, Excessive sleep inertia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep drunkenness refers to the prolonged and pronounced difficulty with awakening from nocturnal sleep and daytime naps. This symptom should be distinguished from the milder and physiologic state of sleep inertia seen even in healthy controls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episodes of sleep drunkenness may be characterized by disorientation, grogginess, and, at times, significant agitation upon awakening or following forced awakenings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:6000456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep drunkeness (HP:6000456)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restless legs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal movement during sleep, Parasomnia, Abnormal affect, Abnormal nervous system physiology, Abnormal central motor function, Phenotypic abnormality, Abnormality of mental function, Akathisia, Restless legs, Abnormally increased volition, Sleep disturbance, Abnormality of movement, Involuntary movements, Restlessness, Abnormal volitional state, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200300, HP:0025234, HP:0025766, HP:0012638, HP:0011442, HP:0000118, HP:0011446, HP:0031943, HP:0012452, HP:5200263, HP:0002360, HP:0100022, HP:0004305, HP:0000711, HP:0025780, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025766, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0011442, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031943, https://hpo.jax.org/browse/term/HP:0012452, https://hpo.jax.org/browse/term/HP:5200263, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0100022, https://hpo.jax.org/browse/term/HP:0004305, https://hpo.jax.org/browse/term/HP:0000711, https://hpo.jax.org/browse/term/HP:0025780, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restless legs syndrome, Tachyathetosis, Ekbom syndrome, Willis-Ekbom disease, Wittmaack-Ekbom syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An irresistible urge to move the legs, usually accompanied by unpleasant sensations deep within the limbs. Symptoms typically begin or worsen during periods of rest or inactivity, are most pronounced in the evening or at night, and are temporarily relieved by movement such as walking or stretching. The disturbance often interferes with the initiation or maintenance of sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restless legs syndrome is a disorder characterized by aching or burning sensations in the legs that occur prior to sleep or may awaken the affected individuals. Complying with an irresistible urge to move the affected limbs brings temporary relief. Sleep may become disrupted, resulting in excessive daytime hypersomnolence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restless legs (HP:0012452)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insomnia, Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0100785, HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep onset insomnia, Maintenance insomnia, Terminal insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0031354, https://hpo.jax.org/browse/term/HP:0031355, https://hpo.jax.org/browse/term/HP:0031356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0100785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty staying or falling asleep, Inability to sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persistent difficulty in starting or maintaining sleep, or waking up earlier than desired, despite having adequate opportunities and conditions for sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The individual subjectively reports the inability to sleep, which may manifest as prolonged sleep latency, frequent awakenings, or premature morning awakening. This phenomenon is often linked or associated with distress, reduced daytime functioning, or dissatisfaction with sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0100785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insomnia (HP:0100785)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypersomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Reduced consciousness, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system, Hypersomnia, Drowsiness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0004372, HP:0011446, HP:0012638, HP:0000001, HP:0000707, HP:0100786, HP:0002329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0004372, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0100786, https://hpo.jax.org/browse/term/HP:0002329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0100786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive sleepiness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive sleepiness or feeling of sleepiness, or difficulty staying awake despite having had adequate sleep, which persists over several days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Often results in excessive sleeping.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0100786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypersomnia (HP:0100786)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic hallucination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Phenotypic abnormality, Hallucinations, Sleep disturbance, Abnormal experience of reality, Abnormality of mental function, Parasomnia, Hypnagogic hallucination, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from sleep to wakefulness, Sleep related hallucination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0000118, HP:0000738, HP:0002360, HP:5200423, HP:0011446, HP:0025234, HP:0002519, HP:0000707, HP:0000001, HP:5200293, HP:5200296, HP:4000063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0002519, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:4000063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallucinations while falling asleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic hallucinations are brief hallucinations that occur when falling asleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic hallucinations are typically reported as visual, auditory, and tactile sensations. Visual phenomena often consist of kaleidoscopically changing patterns, shapes, and flashes of light. Lifelike and highly detailed images of animals, people, faces, and scenes are also common, displaying a wide range of vivid colors. Auditory experiences, although less frequent, may include voices, as well as sounds like a ringing phone, doorbell, or music. These auditory impressions may involve words, names, conversations, or environmental and animal sounds. Additionally, hypnagogic hallucinations can manifest as somatic experiences, which include bodily distortions, feelings of weightlessness, sensations of flying or falling, and an eerie sense of a presence in the room.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic hallucination (HP:0002519)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnopompic hallucination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep related hallucination, Abnormal nervous system physiology, Phenotypic abnormality, Hypnopompic hallucination, Hallucinations, Sleep disturbance, Abnormal experience of reality, Abnormality of mental function, Parasomnia, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from wakefulness to sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:4000063, HP:0012638, HP:0000118, HP:0006896, HP:0000738, HP:0002360, HP:5200423, HP:0011446, HP:0025234, HP:0000707, HP:0000001, HP:5200293, HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0006896, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0006896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallucinations while awaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallucinations occurring during the transition from sleep to wakefulness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0006896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnopompic hallucination (HP:0006896)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmented sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Fragmented sleep, Abnormality of the nervous system, All, Poor sleep, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0025199, HP:0000707, HP:0000001, HP:4000064, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025199, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broken sleep, Fitful sleep, Interrupted sleep, Restless sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep characterized by frequent interruptions, stopping and starting, which disrupt the normal progression of sleep stages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmented sleep (HP:0025199)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All, Abnormality of mental function, Abnormal nervous system physiology, Sleep disturbance, Arousal parasomnia, Abnormality of the nervous system, Parasomnia, NREM parasomnia, Phenotypic abnormality, Sleep terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000001, HP:0011446, HP:0012638, HP:0002360, HP:0025184, HP:0000707, HP:0025234, HP:0025235, HP:0000118, HP:0030765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0030765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0030765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Night terror, Pavor nocturnus, Sleep terrors, Waking up screaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autonomic arousal, screaming, sweating, crying, outbursts during sleep, usually no recollection at the individual level; typically observed by others.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep terrors are more common in children and are often observed by care-givers. Sleep terrors may occur in individuals who are sleepwalking.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0030765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep terror (HP:0030765)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N1 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system, Short N1 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200362, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707, HP:5200304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short light sleep of NREM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreased duration of phase N1 of nonrapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1 sleep may be delayed or disrupted by a number of sleep disorders, including insomnia, hypersomnia, and movement disorders such as restless legs syndrome.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N1 sleep (HP:5200304)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal rapid eye movement sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal rapid eye movement sleep, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:0002494, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM parasomnia, Sleep onset rapid eye movement period, Short REM sleep, Prolonged REM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:5200356, https://hpo.jax.org/browse/term/HP:5200360, https://hpo.jax.org/browse/term/HP:5200361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal REM sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of REM Sleep are phases of REM sleep are characterized by desynchronized EEG patterns, increases in heart rate and blood pressure, sympathetic activation, and a profound loss of muscle tone except for the eye and middle-ear muscles. There are also phases of rapid eye movements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal rapid eye movement sleep (HP:0002494)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep walking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of mental function, Abnormal nervous system physiology, Sleep disturbance, Abnormal movement during sleep, Abnormality of the nervous system, Parasomnia, NREM parasomnia, Sleep walking, Phenotypic abnormality, All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0011446, HP:0012638, HP:0002360, HP:5200300, HP:0000707, HP:0025234, HP:0025235, HP:0025236, HP:0000118, HP:0000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0025236, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep walking, Somnambulism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambulation during sleep with lack awareness and limited or no recall of the event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During an episode of sleepwalking, the somnambulating child typically appears clumsy and might perform unusual actions, such as urinating in a closet. Injuries can occur during sleepwalking, including falling downstairs or when leaving the house.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep walking (HP:0025236)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NREM parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Parasomnia, All, NREM parasomnia, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0025234, HP:0000001, HP:0025235, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep walking, Sleep terror, Sleep-related eating behavior, Sexsomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025236, https://hpo.jax.org/browse/term/HP:0030765, https://hpo.jax.org/browse/term/HP:5200288, https://hpo.jax.org/browse/term/HP:5200294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disturbance in NREM, NREM parasomnia, Non-rapid eye movement parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A parasomnia that occurs during non-rapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NREM parasomnias typically occur within a few hours after the onset of sleep. Episodes can last from a few minutes to as long as 30-40 minutes and are characterized by amnesia for the event.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NREM parasomnia (HP:0025235)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal movement during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Parasomnia, All, Abnormal movement during sleep, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0000707, HP:0025234, HP:0000001, HP:5200300, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruxism, Restless legs, Sleep talking, Hypnic jerks, Sleep walking, REM sleep behavior disorder, Periodic limb movements of sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0003763, https://hpo.jax.org/browse/term/HP:0012452, https://hpo.jax.org/browse/term/HP:0025187, https://hpo.jax.org/browse/term/HP:0025189, https://hpo.jax.org/browse/term/HP:0025236, https://hpo.jax.org/browse/term/HP:5200291, https://hpo.jax.org/browse/term/HP:5200295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nocturnal myoclonus syndrome, Periodic limb movement disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodic Limb Movement Disorder, also known as Sleep-Related Myoclonus Syndrome or Nocturnal Myoclonus Syndrome, refers to the periodic and stereotypic movements of the legs or upper limbs during sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal movement during sleep (HP:5200300)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Sleep disturbance, Sleep attack, Abnormality of the nervous system, Excessive sleep, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0002360, HP:0002330, HP:0000707, HP:0025288, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002330, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0002330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paroxysmal drowsiness, Sleep attacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A sleep attack is a sudden, irresistable episode of sleep that occurs during waking hours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep attack (HP:0002330)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Parasomnia, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0025234, HP:0000118, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arousal parasomnia, NREM parasomnia, Sleep-wake transition abnormality, REM parasomnia, Abnormal movement during sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:5200300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event that disrupts sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A clinically observable or self-reported abnormal behavior, experience, or physiological event that occurs in association with sleep, specific sleep stages, or sleep-wake transitions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasomnias are distinct from the primary sleep disorders insomnia, hypersomnia, and circadian rhythm disturbances. They can involve motor, sensory, autonomic, or cognitive activation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parasomnia (HP:0025234)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REM parasomnia, Phenotypic abnormality, Sleep disturbance, Abnormal rapid eye movement sleep, Parasomnia, Sleep paralysis, Abnormality of mental function, All, Abnormality of the nervous system, Sleep-wake transition abnormality, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200299, HP:0000118, HP:0002360, HP:0002494, HP:0025234, HP:0025233, HP:0011446, HP:0000001, HP:0000707, HP:5200293, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic sleep paralysis, Hypnopompic sleep paralysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200352, https://hpo.jax.org/browse/term/HP:5200353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0025233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inability to move trunk and limbs and inability to speak during transition into or out of sleep; awareness is preserved and recall is present.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis is associated with the transition from or to the REM stage of sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep paralysis (HP:0025233)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep related hallucination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormal nervous system physiology, Hallucinations, Phenotypic abnormality, Abnormal experience of reality, Sleep disturbance, Parasomnia, Abnormality of mental function, All, Abnormality of the nervous system, Sleep related hallucination, Sleep-wake transition abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0012638, HP:0000738, HP:0000118, HP:5200423, HP:0002360, HP:0025234, HP:0011446, HP:0000001, HP:0000707, HP:4000063, HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:5200293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypnagogic hallucination, Hypnopompic hallucination, Exploding head syndrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002519, https://hpo.jax.org/browse/term/HP:0006896, https://hpo.jax.org/browse/term/HP:5200290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:4000063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallucination during onset/falling asleep in any sensory modality, usually auditory, visual, or tactile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:4000063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep related hallucination (HP:4000063)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Poor sleep, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:4000064, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmented sleep, Non-restorative sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0025199, https://hpo.jax.org/browse/term/HP:5200292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:4000064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low-quality sleep, Poor sleep quality, Sleeping badly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subjectively or observationally reported sleep that is insufficiently restorative, disrupted, or of inadequate quality, regardless of duration. Poor sleep may involve difficulty maintaining sleep continuity, frequent awakenings, a sense of light or shallow sleep, or waking up feeling unrefreshed. It is typically identified through self-report or clinical interview and not by objective measurements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:4000064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor sleep (HP:4000064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N3 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short NREM sleep, Short N3 sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200362, HP:5200309, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200309, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short slow wave sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreased duration of phase N3 of nonrapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On an electroencephalogram (EEG), N3 sleep is characterized by a distinct pattern of synchronized brain waves. These brain waves give N3 the moniker "slow-wave sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N3 sleep (HP:5200309)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N2 sleep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N2 sleep, Short NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200307, HP:5200362, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200307, https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short subdued state of NREM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decreased duration of phase N2 of nonrapid eye movement (NREM) sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the N2 sleep stage, muscles begin to relax, breathing and heart rate slow, and body temperature drops slightly. During this stage of the sleep cycle, your brain activity also slows down to help maintain sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short N2 sleep (HP:5200307)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central sleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep-related breathing disorders, Abnormal nervous system physiology, All, Abnormality of the nervous system, Central sleep apnea, Sleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000118, HP:0002360, HP:0011446, HP:5200283, HP:0012638, HP:0000001, HP:0000707, HP:0010536, HP:0010535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0010536, https://hpo.jax.org/browse/term/HP:0010535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0010536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central sleep apnoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep apnea results from a temporary loss of the central drive to the muscles responsible for breathing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0010536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central sleep apnea (HP:0010536)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep apnea, Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Sleep-related breathing disorders, All, Abnormality of mental function, Phenotypic abnormality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0010535, HP:0012638, HP:0002360, HP:0000707, HP:5200283, HP:0000001, HP:0011446, HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0010535, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obstructive sleep apnea, Central sleep apnea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0002870, https://hpo.jax.org/browse/term/HP:0010536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0010535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pauses in breathing while sleeping, Sleep apnea, Sleep apnoea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An intermittent cessation of airflow at the mouth and nose during sleep is known as sleep apnea. Apneas that last at least 10 seconds are considered significant, but individuals with sleep apnea may experience apneas lasting from 20 seconds up to 2 or 3 minutes. Patients may have up to 15 events per hour of sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0010535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sleep apnea (HP:0010535)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradoxical insomnia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Paradoxical insomnia, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:5200305, HP:0000118, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200305, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:5200305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disturbance in perception related to sleep, Sleep misperception, Sleep state misperception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradoxical insomnia is a condition in which individuals with a normal or near-normal sleep macrostructure tend to severely underestimate the quantity and quality of their sleep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:5200305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradoxical insomnia (HP:5200305)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narcolepsy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Narcolepsy, Abnormality of mental function, Abnormal nervous system physiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0030050, HP:0011446, HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0030050, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP:0030050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An abnormal phenomenon characterized by a classic tetrad of excessive daytime sleepiness with irresistible sleep attacks, cataplexy (sudden bilateral loss of muscle tone), hypnagogic hallucinations, and sleep paralysis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There are two distinct groups of patients with narcolepsy, ie, those having narcolepsy with cataplexy and those having narcolepsy without cataplexy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hpo.jax.org/browse/term/HP:0030050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narcolepsy (HP:0030050)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="739">
+  <si>
+    <t>termLabel</t>
+  </si>
+  <si>
+    <t>rootTerm</t>
+  </si>
+  <si>
+    <t>Melvin Reviewed</t>
+  </si>
+  <si>
+    <t>Include In Abnormal Survey</t>
+  </si>
+  <si>
+    <t>Include In Survey Parasomnia</t>
+  </si>
+  <si>
+    <t>Include in Survey Clinical Sleep</t>
+  </si>
+  <si>
+    <t>PARENTS</t>
+  </si>
+  <si>
+    <t>CHILDREN</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>SYNONYM</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>termComment</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>SUGGESTED CHILDREN</t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>parentHpoLink</t>
+  </si>
+  <si>
+    <t>childrenHpoLink</t>
+  </si>
+  <si>
+    <t>hierarchyText</t>
+  </si>
+  <si>
+    <t>hpoLink</t>
+  </si>
+  <si>
+    <t>synAndTypeDoNotDelete</t>
+  </si>
+  <si>
+    <t>CONTRIBUTORS</t>
+  </si>
+  <si>
+    <t>COMPLETED BY</t>
+  </si>
+  <si>
+    <t>numCurators</t>
+  </si>
+  <si>
+    <t>numSynonyms</t>
+  </si>
+  <si>
+    <t>SUGGESTED PARENT</t>
+  </si>
+  <si>
+    <t>labelAndId</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>formSummary</t>
+  </si>
+  <si>
+    <t>parentsDoNotDelete</t>
+  </si>
+  <si>
+    <t>childrenDoNotDelete</t>
+  </si>
+  <si>
+    <t>labelTimestamp</t>
+  </si>
+  <si>
+    <t>defTimestamp</t>
+  </si>
+  <si>
+    <t>synonymsTimestamp</t>
+  </si>
+  <si>
+    <t>termCommentTimestamp</t>
+  </si>
+  <si>
+    <t>allTermAttributesTimestamp</t>
+  </si>
+  <si>
+    <t>formLink</t>
+  </si>
+  <si>
+    <t>nextTerm</t>
+  </si>
+  <si>
+    <t>nextTermLabel</t>
+  </si>
+  <si>
+    <t>termRecordId</t>
+  </si>
+  <si>
+    <t>grandparents</t>
+  </si>
+  <si>
+    <t>parentLabelStringImport</t>
+  </si>
+  <si>
+    <t>synonymStringImport</t>
+  </si>
+  <si>
+    <t>pmidStrinImport</t>
+  </si>
+  <si>
+    <t>CONTRIBUTIONS 2</t>
+  </si>
+  <si>
+    <t>isFinalTerm</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Sleep disturbance</t>
+  </si>
+  <si>
+    <t>unchecked</t>
+  </si>
+  <si>
+    <t>Sleep disturbance, All, Abnormality of the nervous system, Abnormal nervous system physiology, Phenotypic abnormality, Abnormality of mental function</t>
+  </si>
+  <si>
+    <t>HP:0002360, HP:0000001, HP:0000707, HP:0012638, HP:0000118, HP:0011446</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446</t>
+  </si>
+  <si>
+    <t>Excessive daytime somnolence, Abnormal rapid eye movement sleep, Sleep-wake cycle disturbance, Parasomnia, Excessive sleep, Narcolepsy, Insomnia, Hypersomnia, Poor sleep, Decreased need for sleep, Sleep-related breathing disorders, Abnormal sleep architecture, Paradoxical insomnia</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0001262, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0030050, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0100786, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:5200276, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:5200305</t>
+  </si>
+  <si>
+    <t>HP:0002360</t>
+  </si>
+  <si>
+    <t>Difficulty sleeping, Sleep abnormality, Sleep disturbances, Sleep dysfunction, Sleep-wake disturbance, Trouble sleeping</t>
+  </si>
+  <si>
+    <t>An abnormal pattern in the quality, quantity, or characteristics of sleep.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002360</t>
+  </si>
+  <si>
+    <t>Sleep disturbance (HP:0002360)</t>
+  </si>
+  <si>
+    <t>Prolonged N2 sleep</t>
+  </si>
+  <si>
+    <t>Prolonged NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, Prolonged N2 sleep, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200363, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:5200358, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200358, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200358</t>
+  </si>
+  <si>
+    <t>Increased duration of phase N2 of nonrapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200358</t>
+  </si>
+  <si>
+    <t>Prolonged N2 sleep (HP:5200358)</t>
+  </si>
+  <si>
+    <t>Sleep talking</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system, Sleep talking</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:5200300, HP:0000001, HP:0000707, HP:0025187</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025187</t>
+  </si>
+  <si>
+    <t>HP:0025187</t>
+  </si>
+  <si>
+    <t>Vocalization (production of recognizable words or other sounds) during sleep with lack of awareness.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025187</t>
+  </si>
+  <si>
+    <t>Sleep talking (HP:0025187)</t>
+  </si>
+  <si>
+    <t>Prolonged N3 sleep</t>
+  </si>
+  <si>
+    <t>Prolonged NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Prolonged N3 sleep, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200363, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:5200359, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200359, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200359</t>
+  </si>
+  <si>
+    <t>Increased duration of phase N3 of nonrapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200359</t>
+  </si>
+  <si>
+    <t>Prolonged N3 sleep (HP:5200359)</t>
+  </si>
+  <si>
+    <t>Sleep onset rapid eye movement period</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Abnormal sleep architecture, Sleep disturbance, Abnormal rapid eye movement sleep, Abnormality of the nervous system, Parasomnia, Phenotypic abnormality, Abnormality of mental function, Sleep onset rapid eye movement period, Sleep-wake transition abnormality, All, Abnormal transition from sleep to wakefulness</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:5200298, HP:0002360, HP:0002494, HP:0000707, HP:0025234, HP:0000118, HP:0011446, HP:5200356, HP:5200293, HP:0000001, HP:5200296</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200356, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200296</t>
+  </si>
+  <si>
+    <t>HP:5200356</t>
+  </si>
+  <si>
+    <t>SOREMP, Sleep-onset (REM) period, Sleep-onset rapid eye movement (REM) period</t>
+  </si>
+  <si>
+    <t>Entering REM sleep immediately upon falling asleep.</t>
+  </si>
+  <si>
+    <t>The NREM stages of sleep are not skipped.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200356</t>
+  </si>
+  <si>
+    <t>Sleep onset rapid eye movement period (HP:5200356)</t>
+  </si>
+  <si>
+    <t>Prolonged N1 sleep</t>
+  </si>
+  <si>
+    <t>Prolonged NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, Prolonged N1 sleep, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200363, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:5200357, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200357, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200357</t>
+  </si>
+  <si>
+    <t>Increased duration of phase N1 of nonrapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200357</t>
+  </si>
+  <si>
+    <t>Prolonged N1 sleep (HP:5200357)</t>
+  </si>
+  <si>
+    <t>Hypnagogic sleep paralysis</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, REM parasomnia, Abnormal rapid eye movement sleep, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep paralysis, Parasomnia, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from sleep to wakefulness, Hypnagogic sleep paralysis</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:5200299, HP:0002494, HP:0000118, HP:0002360, HP:0011446, HP:0025233, HP:0025234, HP:0000707, HP:0000001, HP:5200293, HP:5200296, HP:5200352</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:5200352</t>
+  </si>
+  <si>
+    <t>HP:5200352</t>
+  </si>
+  <si>
+    <t>Inability to move while falling asleep, Predormital sleep paralysis</t>
+  </si>
+  <si>
+    <t>Sleep paralysis that occurs when falling asleep.</t>
+  </si>
+  <si>
+    <t>During sleep paralysis, a person often hallucinates sounds or sensations, such as the presence of a person in the room or even on their chest. If sleep paralysis and these hallucinations occur as a person is falling asleep, they are considered hypnagogic hallucinations.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200352</t>
+  </si>
+  <si>
+    <t>Hypnagogic sleep paralysis (HP:5200352)</t>
+  </si>
+  <si>
+    <t>Snoring</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Snoring, All, Sleep-related breathing disorders, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0025267, HP:0000001, HP:5200283, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025267, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Loud snoring</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025372</t>
+  </si>
+  <si>
+    <t>HP:0025267</t>
+  </si>
+  <si>
+    <t>Snore, Snores, Snoring symptoms</t>
+  </si>
+  <si>
+    <t>Deep, noisy breathing during sleep, accompanied by hoarse or harsh sounds, is caused by the vibration of respiratory structures, especially the soft palate. This vibration results in sound due to obstructed air movement during breathing while sleeping.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025267</t>
+  </si>
+  <si>
+    <t>Snoring (HP:0025267)</t>
+  </si>
+  <si>
+    <t>Hypnopompic sleep paralysis</t>
+  </si>
+  <si>
+    <t>Hypnopompic sleep paralysis, REM parasomnia, Abnormal rapid eye movement sleep, Abnormal nervous system physiology, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep paralysis, Parasomnia, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from wakefulness to sleep</t>
+  </si>
+  <si>
+    <t>HP:5200353, HP:5200299, HP:0002494, HP:0012638, HP:0000118, HP:0002360, HP:0011446, HP:0025233, HP:0025234, HP:0000707, HP:0000001, HP:5200293, HP:5200297</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200353, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200297</t>
+  </si>
+  <si>
+    <t>HP:5200353</t>
+  </si>
+  <si>
+    <t>Inability to move while awakening, Postdormital paralysis, Postdormital sleep paralysis</t>
+  </si>
+  <si>
+    <t>Sleep paralysis that occurs when waking up from sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200353</t>
+  </si>
+  <si>
+    <t>Hypnopompic sleep paralysis (HP:5200353)</t>
+  </si>
+  <si>
+    <t>Hypnic jerks</t>
+  </si>
+  <si>
+    <t>Hypnic jerks, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:0025189, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:5200300, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025189, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:0025189</t>
+  </si>
+  <si>
+    <t>Sleep starts</t>
+  </si>
+  <si>
+    <t>Hypnic jerks are characterized by sudden and brief (less than 1 second), non-periodic simultaneous contractions of the whole body or one or more extremities at the onset of sleep.</t>
+  </si>
+  <si>
+    <t>Although hypnic jerks are generally benign, there have been increasing reports of excessive hypnic jerks in neurological disorders such as Parkinsonism, migraine, and brainstem lesions and children with neurologic disorders.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025189</t>
+  </si>
+  <si>
+    <t>Hypnic jerks (HP:0025189)</t>
+  </si>
+  <si>
+    <t>Decreased need for sleep</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Decreased need for sleep, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:5200276, HP:0000118, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200276, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>HP:5200276</t>
+  </si>
+  <si>
+    <t>There has been a noticeable decrease in the need for sleep, where individuals feel refreshed even with minimal or no sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200276</t>
+  </si>
+  <si>
+    <t>Decreased need for sleep (HP:5200276)</t>
+  </si>
+  <si>
+    <t>Arousal parasomnia</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Arousal parasomnia, Abnormality of the nervous system, Parasomnia, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0025184, HP:0000707, HP:0025234, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Sleep terror, Recurrent distressing nightmares, Sleep-related eating behavior, Sleep drunkeness</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0030765, https://hpo.jax.org/browse/term/HP:5200287, https://hpo.jax.org/browse/term/HP:5200288, https://hpo.jax.org/browse/term/HP:6000456</t>
+  </si>
+  <si>
+    <t>HP:0025184</t>
+  </si>
+  <si>
+    <t>Arousal related sleep disturbance</t>
+  </si>
+  <si>
+    <t>An altered state of arousal during sleep that may be reported by the individual or an observation of others.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025184</t>
+  </si>
+  <si>
+    <t>Arousal parasomnia (HP:0025184)</t>
+  </si>
+  <si>
+    <t>Prolonged REM sleep</t>
+  </si>
+  <si>
+    <t>Abnormal rapid eye movement sleep, Prolonged REM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:0002494, HP:5200361, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:5200361, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200361</t>
+  </si>
+  <si>
+    <t>Prolonged rapid eye movement sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200361</t>
+  </si>
+  <si>
+    <t>Prolonged REM sleep (HP:5200361)</t>
+  </si>
+  <si>
+    <t>Episodic hypersomnia</t>
+  </si>
+  <si>
+    <t>Reduced consciousness, Abnormality of mental function, Abnormal nervous system physiology, Sleep disturbance, Hypersomnia, Abnormality of the nervous system, Drowsiness, Episodic hypersomnia, Phenotypic abnormality, All</t>
+  </si>
+  <si>
+    <t>HP:0004372, HP:0011446, HP:0012638, HP:0002360, HP:0100786, HP:0000707, HP:0002329, HP:0007200, HP:0000118, HP:0000001</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0004372, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0100786, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0002329, https://hpo.jax.org/browse/term/HP:0007200, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0000001</t>
+  </si>
+  <si>
+    <t>HP:0007200</t>
+  </si>
+  <si>
+    <t>Idiopathic hypersomnia, Recurrent hypersomnia</t>
+  </si>
+  <si>
+    <t>Recurrent episodes of hypersomnia (sleeping 16 or more hours a day) over a period of days or weeks.</t>
+  </si>
+  <si>
+    <t>This feature is characteristic of Kleine-Levin syndrome.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0007200</t>
+  </si>
+  <si>
+    <t>Episodic hypersomnia (HP:0007200)</t>
+  </si>
+  <si>
+    <t>Short NREM sleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Short NREM sleep, Abnormal sleep architecture, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:5200362, HP:5200298, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Short N1 sleep, Short N2 sleep, Short N3 sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200304, https://hpo.jax.org/browse/term/HP:5200307, https://hpo.jax.org/browse/term/HP:5200309</t>
+  </si>
+  <si>
+    <t>HP:5200362</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200362</t>
+  </si>
+  <si>
+    <t>Short NREM sleep (HP:5200362)</t>
+  </si>
+  <si>
+    <t>Short REM sleep</t>
+  </si>
+  <si>
+    <t>Abnormal rapid eye movement sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system, Short REM sleep</t>
+  </si>
+  <si>
+    <t>HP:0002494, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707, HP:5200360</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200360</t>
+  </si>
+  <si>
+    <t>HP:5200360</t>
+  </si>
+  <si>
+    <t>Short rapid eye movement sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200360</t>
+  </si>
+  <si>
+    <t>Short REM sleep (HP:5200360)</t>
+  </si>
+  <si>
+    <t>Sleep-related breathing disorders</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Sleep-related breathing disorders, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:5200283, HP:0000118, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Sleep apnea, Snoring</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0010535, https://hpo.jax.org/browse/term/HP:0025267</t>
+  </si>
+  <si>
+    <t>HP:5200283</t>
+  </si>
+  <si>
+    <t>Difficult respiration during sleep</t>
+  </si>
+  <si>
+    <t>Conditions of abnormal and difficult respiration during sleep, including chronic snoring and sleep apnea.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200283</t>
+  </si>
+  <si>
+    <t>Sleep-related breathing disorders (HP:5200283)</t>
+  </si>
+  <si>
+    <t>Bruxism</t>
+  </si>
+  <si>
+    <t>Recurrent maladaptive behavior, Motor stereotypy, Parasomnia, Stereotypic movements of face and head, Abnormality of mental function, Phenotypic abnormality, Bruxism, All, Restricted or repetitive behaviors or interests, Abnormal movement during sleep, Abnormal nervous system physiology, Abnormality of the nervous system, Sleep disturbance, Atypical behavior</t>
+  </si>
+  <si>
+    <t>HP:5200241, HP:0000733, HP:0025234, HP:5200017, HP:0011446, HP:0000118, HP:0003763, HP:0000001, HP:0031432, HP:5200300, HP:0012638, HP:0000707, HP:0002360, HP:0000708</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200241, https://hpo.jax.org/browse/term/HP:0000733, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200017, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0003763, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0031432, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000708</t>
+  </si>
+  <si>
+    <t>HP:0003763</t>
+  </si>
+  <si>
+    <t>Teeth grinding, Grinding teeth during sleep</t>
+  </si>
+  <si>
+    <t>Bruxism is characterized by the grinding of the teeth including the clenching of the jaw and typically occur during sleep.</t>
+  </si>
+  <si>
+    <t>Rarely, bruxism can occur while the affected individual is awake, but this is less likely to result in the need for medical attention.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0003763</t>
+  </si>
+  <si>
+    <t>Bruxism (HP:0003763)</t>
+  </si>
+  <si>
+    <t>Extended nighttime sleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Extended nighttime sleep, Abnormality of the nervous system, Excessive sleep, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0025298, HP:0000707, HP:0025288, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025298, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0025298</t>
+  </si>
+  <si>
+    <t>Long nighttime sleep, Prolonged nocturnal sleep</t>
+  </si>
+  <si>
+    <t>Sleeping for a longer duration than usual during the night.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025298</t>
+  </si>
+  <si>
+    <t>Extended nighttime sleep (HP:0025298)</t>
+  </si>
+  <si>
+    <t>Sleep-wake cycle disturbance</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Sleep-wake cycle disturbance, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0006979, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Free-running sleep pattern, Sleep-wake inversion, Early chronotype, Late chronotype, Shortened sleep phase</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025365, https://hpo.jax.org/browse/term/HP:0031849, https://hpo.jax.org/browse/term/HP:0031873, https://hpo.jax.org/browse/term/HP:0031874, https://hpo.jax.org/browse/term/HP:0033063</t>
+  </si>
+  <si>
+    <t>HP:0006979</t>
+  </si>
+  <si>
+    <t>Internal-clock disorders, Sleep phase disturbance, Sleep-wake cycle disorders, Sleep-wake cycle disturbance, Sleep-wake mistiming</t>
+  </si>
+  <si>
+    <t>Any abnormality of an individual's circadian rhythm that affects the timing of sleeping and being awake is referred to as a sleep-wake disorder.</t>
+  </si>
+  <si>
+    <t>Often, patients complain of insomnia when their desired sleep-wake cycle is inconsistent with their intrinsic rhythms.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0006979</t>
+  </si>
+  <si>
+    <t>Sleep-wake cycle disturbance (HP:0006979)</t>
+  </si>
+  <si>
+    <t>Obstructive sleep apnea</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep-related breathing disorders, Abnormal nervous system physiology, All, Abnormality of the nervous system, Sleep apnea, Obstructive sleep apnea</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0011446, HP:5200283, HP:0012638, HP:0000001, HP:0000707, HP:0010535, HP:0002870</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0010535, https://hpo.jax.org/browse/term/HP:0002870</t>
+  </si>
+  <si>
+    <t>HP:0002870</t>
+  </si>
+  <si>
+    <t>Obstructive sleep apnoea</t>
+  </si>
+  <si>
+    <t>Obstructive Sleep Apnea is a condition characterized by the obstruction of the airway and pauses in breathing during sleep, which occur multiple times throughout the night. It is related to the relaxation of muscle tone that typically happens during sleep, leading to a partial collapse of the soft tissues in the airway and causing airflow obstruction.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002870</t>
+  </si>
+  <si>
+    <t>Obstructive sleep apnea (HP:0002870)</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep-related breathing disorders, Abnormal nervous system physiology, All, Loud snoring, Abnormality of the nervous system, Snoring</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0011446, HP:5200283, HP:0012638, HP:0000001, HP:0025372, HP:0000707, HP:0025267</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0025372, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025267</t>
+  </si>
+  <si>
+    <t>HP:0025372</t>
+  </si>
+  <si>
+    <t>Has loud snoring, Have loud snoring, Heavy snoring, Snores loudly</t>
+  </si>
+  <si>
+    <t>Snoring at a particularly loud or abnormally high volume.</t>
+  </si>
+  <si>
+    <t>Loud snoring (HP:0025372)</t>
+  </si>
+  <si>
+    <t>Sleep-related eating behavior</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Parasomnia, NREM parasomnia, Arousal parasomnia, Abnormality of the nervous system, All, Atypical behavior, Sleep-related eating behavior, Abnormal consumption behavior, Recurrent maladaptive behavior</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0000118, HP:0002360, HP:0011446, HP:0025234, HP:0025235, HP:0025184, HP:0000707, HP:0000001, HP:0000708, HP:5200288, HP:0040202, HP:5200241</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000708, https://hpo.jax.org/browse/term/HP:5200288, https://hpo.jax.org/browse/term/HP:0040202, https://hpo.jax.org/browse/term/HP:5200241</t>
+  </si>
+  <si>
+    <t>HP:5200288</t>
+  </si>
+  <si>
+    <t>Consuming food while asleep, Nocturnal sleep-related eating disorder (NS-RED), SRED, Sleep eating, Sleep-related eating disorder</t>
+  </si>
+  <si>
+    <t>Eating during sleep with limited to no recall of involuntary eating while asleep.</t>
+  </si>
+  <si>
+    <t>Sleep-related eating may be associated with sleep walking.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200288</t>
+  </si>
+  <si>
+    <t>Sleep-related eating behavior (HP:5200288)</t>
+  </si>
+  <si>
+    <t>Microsleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Excessive sleep, All, Microsleep, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0025288, HP:0000001, HP:5200289, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200289, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:5200289</t>
+  </si>
+  <si>
+    <t>Short duration sleep</t>
+  </si>
+  <si>
+    <t>Sudden onset of extreme drowsiness or falling asleep during the day for a short period of time.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200289</t>
+  </si>
+  <si>
+    <t>Microsleep (HP:5200289)</t>
+  </si>
+  <si>
+    <t>Prolonged NREM sleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Prolonged NREM sleep, Abnormal sleep architecture, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:5200363, HP:5200298, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200363, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Prolonged N1 sleep, Prolonged N2 sleep, Prolonged N3 sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200357, https://hpo.jax.org/browse/term/HP:5200358, https://hpo.jax.org/browse/term/HP:5200359</t>
+  </si>
+  <si>
+    <t>HP:5200363</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200363</t>
+  </si>
+  <si>
+    <t>Prolonged NREM sleep (HP:5200363)</t>
+  </si>
+  <si>
+    <t>Excessive daytime somnolence</t>
+  </si>
+  <si>
+    <t>Reduced consciousness, Sleep disturbance, Abnormal nervous system physiology, Excessive daytime somnolence, Abnormality of the nervous system, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0004372, HP:0002360, HP:0012638, HP:0001262, HP:0000707, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0004372, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0001262, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0001262</t>
+  </si>
+  <si>
+    <t>Excessive daytime sleepiness, More than typical sleepiness during day</t>
+  </si>
+  <si>
+    <t>A state of abnormally strong desire for sleep during the daytime.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0001262</t>
+  </si>
+  <si>
+    <t>Excessive daytime somnolence (HP:0001262)</t>
+  </si>
+  <si>
+    <t>Recurrent distressing nightmares</t>
+  </si>
+  <si>
+    <t>Arousal parasomnia, REM parasomnia, Phenotypic abnormality, Sleep disturbance, Abnormal rapid eye movement sleep, Parasomnia, Recurrent distressing nightmares, Abnormality of mental function, All, Abnormality of the nervous system, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0025184, HP:5200299, HP:0000118, HP:0002360, HP:0002494, HP:0025234, HP:5200287, HP:0011446, HP:0000001, HP:0000707, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200287, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>HP:5200287</t>
+  </si>
+  <si>
+    <t>Disturbing dreams, Nightmare disorder</t>
+  </si>
+  <si>
+    <t>Repeated occurrence of nightmares that cause clinically significant distress or impairment in social, occupational or other important areas of functioning, which are not attributable to the physiological effects of a substance (e.g. drug abuse or medication) and which cannot be adequately explained by coexisting mental and medical disorders.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200287</t>
+  </si>
+  <si>
+    <t>Recurrent distressing nightmares (HP:5200287)</t>
+  </si>
+  <si>
+    <t>Frequent napping</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Excessive sleep, Frequent napping, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0025288, HP:0025299, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0025299, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0025299</t>
+  </si>
+  <si>
+    <t>Frequent daytime naps</t>
+  </si>
+  <si>
+    <t>Regular episodes of sleep that occur during the day outside of the main sleep period.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025299</t>
+  </si>
+  <si>
+    <t>Frequent napping (HP:0025299)</t>
+  </si>
+  <si>
+    <t>Sleep onset insomnia</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Insomnia, Sleep onset insomnia, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0100785, HP:0031354, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0031354, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0031354</t>
+  </si>
+  <si>
+    <t>Difficulty falling asleep, Early insomnia, Increased sleep latency, Sleep onset insomnia, Trouble falling asleep</t>
+  </si>
+  <si>
+    <t>Difficulty initiating sleep, that is, increased sleep onset latency, refers to the condition where it takes 30 minutes or more to fall asleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031354</t>
+  </si>
+  <si>
+    <t>Sleep onset insomnia (HP:0031354)</t>
+  </si>
+  <si>
+    <t>Maintenance insomnia</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Insomnia, Maintenance insomnia, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0100785, HP:0031355, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0031355, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0031355</t>
+  </si>
+  <si>
+    <t>Difficulty staying asleep, Insomnia middle, Middle insomnia, Waking up several times during the night</t>
+  </si>
+  <si>
+    <t>Individuals affected by abnormal difficulty in staying asleep tend to wake up at night and struggle to return to sleep. This condition typically involves spending more than 30 minutes awake during the night.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031355</t>
+  </si>
+  <si>
+    <t>Maintenance insomnia (HP:0031355)</t>
+  </si>
+  <si>
+    <t>Early chronotype</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Sleep-wake cycle disturbance, Abnormality of mental function, Early chronotype, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0006979, HP:0011446, HP:0031873, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031873, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0031873</t>
+  </si>
+  <si>
+    <t>Advanced sleep onset, Early sleep onset</t>
+  </si>
+  <si>
+    <t>A tendency towards rising very early in the morning and going to bed early in the evening.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031873</t>
+  </si>
+  <si>
+    <t>Early chronotype (HP:0031873)</t>
+  </si>
+  <si>
+    <t>Terminal insomnia</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Insomnia, Abnormality of mental function, Terminal insomnia, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0100785, HP:0011446, HP:0031356, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031356, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0031356</t>
+  </si>
+  <si>
+    <t>Early morning awakening, Late insomnia, Premature awakening</t>
+  </si>
+  <si>
+    <t>Waking up earlier than intended and being unable to return to sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031356</t>
+  </si>
+  <si>
+    <t>Terminal insomnia (HP:0031356)</t>
+  </si>
+  <si>
+    <t>Late chronotype</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, All, Sleep-wake cycle disturbance, Abnormality of mental function, Late chronotype, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0000001, HP:0006979, HP:0011446, HP:0031874, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031874, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0031874</t>
+  </si>
+  <si>
+    <t>Delayed sleep onset, Late sleep onset</t>
+  </si>
+  <si>
+    <t>A tendency towards waking up very late in the morning and staying up late at night.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031874</t>
+  </si>
+  <si>
+    <t>Late chronotype (HP:0031874)</t>
+  </si>
+  <si>
+    <t>Shortened sleep phase</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Shortened sleep phase, Abnormality of the nervous system, All, Sleep-wake cycle disturbance, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0033063, HP:0000707, HP:0000001, HP:0006979, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0033063, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0033063</t>
+  </si>
+  <si>
+    <t>Short sleep</t>
+  </si>
+  <si>
+    <t>A tendency to sleep fewer hours than usual while feeling well-rested.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0033063</t>
+  </si>
+  <si>
+    <t>Shortened sleep phase (HP:0033063)</t>
+  </si>
+  <si>
+    <t>Periodic limb movements of sleep</t>
+  </si>
+  <si>
+    <t>Periodic limb movements of sleep, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200295, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:5200300, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200295, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200295</t>
+  </si>
+  <si>
+    <t>Rhythmic limb movements during sleep</t>
+  </si>
+  <si>
+    <t>Repetitive, stereotyped limb movements occurring during sleep, typically involving brief flexion of the toes, ankles, knees, or hips. These movements recur at regular intervals, often every 20-40 seconds, and may cause sleep fragmentation or daytime fatigue. PLMS commonly co-occurs with restless legs syndrome but may also occur independently.</t>
+  </si>
+  <si>
+    <t>Periodic limb movements of sleep often occurs alongside Restless Legs Syndrome (RLS). Treatment for RLS may also help with PLMS.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200295</t>
+  </si>
+  <si>
+    <t>Periodic limb movements of sleep (HP:5200295)</t>
+  </si>
+  <si>
+    <t>Abnormal transition from sleep to wakefulness</t>
+  </si>
+  <si>
+    <t>Abnormal transition from sleep to wakefulness, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system, Sleep-wake transition abnormality</t>
+  </si>
+  <si>
+    <t>HP:5200296, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0000001, HP:0000707, HP:5200293</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293</t>
+  </si>
+  <si>
+    <t>Hypnagogic hallucination, Hypnagogic sleep paralysis, Sleep onset rapid eye movement period</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002519, https://hpo.jax.org/browse/term/HP:5200352, https://hpo.jax.org/browse/term/HP:5200356</t>
+  </si>
+  <si>
+    <t>HP:5200296</t>
+  </si>
+  <si>
+    <t>Abnormal hypnagogia, Abnormality falling asleep</t>
+  </si>
+  <si>
+    <t>Abnormal transition of consciousness from wakefulness to sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200296</t>
+  </si>
+  <si>
+    <t>Abnormal transition from sleep to wakefulness (HP:5200296)</t>
+  </si>
+  <si>
+    <t>Sleep-wake transition abnormality</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Sleep-wake transition abnormality, Parasomnia, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:5200293, HP:0025234, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Sleep paralysis, Sleep related hallucination, Abnormal transition from sleep to wakefulness, Abnormal transition from wakefulness to sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:5200297</t>
+  </si>
+  <si>
+    <t>HP:5200293</t>
+  </si>
+  <si>
+    <t>Disturbance during transitions between sleep and wake states, Sleep state switching, Sleep-wake transition disorders</t>
+  </si>
+  <si>
+    <t>A parasomnia that occurs with awareness and recollection during the transition between sleep and and awake states.</t>
+  </si>
+  <si>
+    <t>Sleep-wake transition abnormalities include rhythmic movement disorder, sleep starts, sleep talking, and nocturnal leg cramps.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200293</t>
+  </si>
+  <si>
+    <t>Sleep-wake transition abnormality (HP:5200293)</t>
+  </si>
+  <si>
+    <t>Sexsomnia</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, NREM parasomnia, All, Abnormality of the nervous system, Sexsomnia</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0025235, HP:0000001, HP:0000707, HP:5200294</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200294</t>
+  </si>
+  <si>
+    <t>HP:5200294</t>
+  </si>
+  <si>
+    <t>Sexual behavior during sleep, Sexual behaviour during sleep</t>
+  </si>
+  <si>
+    <t>Unintentional sexual behavior during sleep, such as masturbation, initiation of sex, or making sexual noises, is known as sexsomnia. Sexsomnia predominantly occurs during NREM sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200294</t>
+  </si>
+  <si>
+    <t>Sexsomnia (HP:5200294)</t>
+  </si>
+  <si>
+    <t>REM sleep behavior disorder</t>
+  </si>
+  <si>
+    <t>REM sleep behavior disorder, REM parasomnia, Phenotypic abnormality, Sleep disturbance, Abnormal rapid eye movement sleep, Parasomnia, Abnormal movement during sleep, All, Abnormality of the nervous system, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:5200291, HP:5200299, HP:0000118, HP:0002360, HP:0002494, HP:0025234, HP:5200300, HP:0000001, HP:0000707, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200291, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>HP:5200291</t>
+  </si>
+  <si>
+    <t>RBD, REM sleep behavior disorder, REM sleep behaviour disorder, Rapid eye movement sleep behavior disorder, Rapid eye movement sleep behaviour disorder, Sleep enactment</t>
+  </si>
+  <si>
+    <t>REM Sleep Behavior Disorder (RBD) is a chronic sleep condition characterized by dream enactment and loss of REM atonia.</t>
+  </si>
+  <si>
+    <t>Normally during rapid eye movement (REM) sleep, the body experiences temporary paralysis (REM atonia) of most of the body's muscles while the brain is active and dreaming.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200291</t>
+  </si>
+  <si>
+    <t>REM sleep behavior disorder (HP:5200291)</t>
+  </si>
+  <si>
+    <t>Non-restorative sleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Non-restorative sleep, All, Poor sleep, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:5200292, HP:0000001, HP:4000064, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200292, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:5200292</t>
+  </si>
+  <si>
+    <t>Non-refreshing sleep, Unrefreshing sleep, Waking up tired</t>
+  </si>
+  <si>
+    <t>Sleep that is subjectively reported as unrefreshing even though the duration is adequate.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200292</t>
+  </si>
+  <si>
+    <t>Non-restorative sleep (HP:5200292)</t>
+  </si>
+  <si>
+    <t>Exploding head syndrome</t>
+  </si>
+  <si>
+    <t>Sleep related hallucination, Sleep disturbance, Hallucinations, Abnormality of the nervous system, Parasomnia, Phenotypic abnormality, Exploding head syndrome, Abnormality of mental function, Sleep-wake transition abnormality, Abnormal experience of reality, All, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:4000063, HP:0002360, HP:0000738, HP:0000707, HP:0025234, HP:0000118, HP:5200290, HP:0011446, HP:5200293, HP:5200423, HP:0000001, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200290, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>HP:5200290</t>
+  </si>
+  <si>
+    <t>Sleep disorder in which one hears a loud noise or explosive crashing sound in one's head. The sound is not real or heard by anyone else. The episode typically happens suddenly, either when beginning to fall asleep or when waking up during the night.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200290</t>
+  </si>
+  <si>
+    <t>Exploding head syndrome (HP:5200290)</t>
+  </si>
+  <si>
+    <t>REM parasomnia</t>
+  </si>
+  <si>
+    <t>Abnormal rapid eye movement sleep, Phenotypic abnormality, REM parasomnia, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:0002494, HP:0000118, HP:5200299, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>Sleep paralysis, Recurrent distressing nightmares, REM sleep behavior disorder</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:5200287, https://hpo.jax.org/browse/term/HP:5200291</t>
+  </si>
+  <si>
+    <t>HP:5200299</t>
+  </si>
+  <si>
+    <t>Disturbance in REM, Rapid eye movement parasomnia</t>
+  </si>
+  <si>
+    <t>Parasomnia occurs during REM sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200299</t>
+  </si>
+  <si>
+    <t>REM parasomnia (HP:5200299)</t>
+  </si>
+  <si>
+    <t>Sleep-wake inversion</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Sleep-wake inversion, All, Sleep-wake cycle disturbance, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0031849, HP:0000001, HP:0006979, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0031849, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0031849</t>
+  </si>
+  <si>
+    <t>Inverted sleep-wake cycle, Reversed sleep-wake cycle, Sleep rhythm inversion</t>
+  </si>
+  <si>
+    <t>A reversal of sleeping habits, with a tendency to sleep during the day and be awake at night.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031849</t>
+  </si>
+  <si>
+    <t>Sleep-wake inversion (HP:0031849)</t>
+  </si>
+  <si>
+    <t>Abnormal transition from wakefulness to sleep</t>
+  </si>
+  <si>
+    <t>Abnormal transition from wakefulness to sleep, Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system, Sleep-wake transition abnormality</t>
+  </si>
+  <si>
+    <t>HP:5200297, HP:0000118, HP:0002360, HP:0011446, HP:0012638, HP:0025234, HP:0000001, HP:0000707, HP:5200293</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200297, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293</t>
+  </si>
+  <si>
+    <t>Hypnopompic hallucination, Hypnopompic sleep paralysis</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0006896, https://hpo.jax.org/browse/term/HP:5200353</t>
+  </si>
+  <si>
+    <t>HP:5200297</t>
+  </si>
+  <si>
+    <t>Abnormal hypnopompia, Abnormal waking</t>
+  </si>
+  <si>
+    <t>Abnormal transition of consciousness from sleeping to wakefulness.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200297</t>
+  </si>
+  <si>
+    <t>Abnormal transition from wakefulness to sleep (HP:5200297)</t>
+  </si>
+  <si>
+    <t>Free-running sleep pattern</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Free-running sleep pattern, All, Sleep-wake cycle disturbance, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0025365, HP:0000001, HP:0006979, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025365, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0006979, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0025365</t>
+  </si>
+  <si>
+    <t>Non-24 sleep pattern</t>
+  </si>
+  <si>
+    <t>A condition in which the intrinsic circadian rhythm is no longer entrained to the 24-h schedule. Normal individuals who are exposed to an environment devoid of zeitgebers develop free-running rhythms with a period longer than 24 h.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025365</t>
+  </si>
+  <si>
+    <t>Free-running sleep pattern (HP:0025365)</t>
+  </si>
+  <si>
+    <t>Excessive sleep</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, Excessive sleep</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0025288</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025288</t>
+  </si>
+  <si>
+    <t>Sleep attack, Extended nighttime sleep, Frequent napping, Microsleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002330, https://hpo.jax.org/browse/term/HP:0025298, https://hpo.jax.org/browse/term/HP:0025299, https://hpo.jax.org/browse/term/HP:5200289</t>
+  </si>
+  <si>
+    <t>HP:0025288</t>
+  </si>
+  <si>
+    <t>Prolonged sleep duration, Sleeping too much</t>
+  </si>
+  <si>
+    <t>A clinical phenomenon characterized by sleeping longer than what is typical or necessary for a person's age and context, or by recurrent episodes of sleep that intrude upon the waking hours. Excessive sleep is identified through self-reports or observations and may involve prolonged nighttime sleep, frequent daytime naps, or episodes of unintentional sleep.</t>
+  </si>
+  <si>
+    <t>Excessive sleep often occurs even when a person has had adequate nighttime sleep and may be associated with functional impairment, reduced alertness, or dissatisfaction with sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025288</t>
+  </si>
+  <si>
+    <t>Excessive sleep (HP:0025288)</t>
+  </si>
+  <si>
+    <t>Abnormal sleep architecture</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormal sleep architecture, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:5200298, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Sleep onset rapid eye movement period, Short REM sleep, Prolonged REM sleep, Short NREM sleep, Prolonged NREM sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200356, https://hpo.jax.org/browse/term/HP:5200360, https://hpo.jax.org/browse/term/HP:5200361, https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200363</t>
+  </si>
+  <si>
+    <t>HP:5200298</t>
+  </si>
+  <si>
+    <t>Sleep architecture disturbances, Sleep stage disturbances</t>
+  </si>
+  <si>
+    <t>Interruptions during the various stages of sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200298</t>
+  </si>
+  <si>
+    <t>Abnormal sleep architecture (HP:5200298)</t>
+  </si>
+  <si>
+    <t>Sleep drunkeness</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep drunkeness, Abnormal nervous system physiology, Parasomnia, All, Abnormality of the nervous system, Arousal parasomnia</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0011446, HP:6000456, HP:0012638, HP:0025234, HP:0000001, HP:0000707, HP:0025184</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:6000456, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025184</t>
+  </si>
+  <si>
+    <t>HP:6000456</t>
+  </si>
+  <si>
+    <t>Confusional arousal, Slow speech or confused thinking upon waking, Excessive sleep inertia</t>
+  </si>
+  <si>
+    <t>Sleep drunkenness refers to the prolonged and pronounced difficulty with awakening from nocturnal sleep and daytime naps. This symptom should be distinguished from the milder and physiologic state of sleep inertia seen even in healthy controls.</t>
+  </si>
+  <si>
+    <t>Episodes of sleep drunkenness may be characterized by disorientation, grogginess, and, at times, significant agitation upon awakening or following forced awakenings.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:6000456</t>
+  </si>
+  <si>
+    <t>Sleep drunkeness (HP:6000456)</t>
+  </si>
+  <si>
+    <t>Restless legs</t>
+  </si>
+  <si>
+    <t>Abnormal movement during sleep, Parasomnia, Abnormal affect, Abnormal nervous system physiology, Abnormal central motor function, Phenotypic abnormality, Abnormality of mental function, Akathisia, Restless legs, Abnormally increased volition, Sleep disturbance, Abnormality of movement, Involuntary movements, Restlessness, Abnormal volitional state, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200300, HP:0025234, HP:0025766, HP:0012638, HP:0011442, HP:0000118, HP:0011446, HP:0031943, HP:0012452, HP:5200263, HP:0002360, HP:0100022, HP:0004305, HP:0000711, HP:0025780, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025766, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0011442, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0031943, https://hpo.jax.org/browse/term/HP:0012452, https://hpo.jax.org/browse/term/HP:5200263, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0100022, https://hpo.jax.org/browse/term/HP:0004305, https://hpo.jax.org/browse/term/HP:0000711, https://hpo.jax.org/browse/term/HP:0025780, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:0012452</t>
+  </si>
+  <si>
+    <t>Restless legs syndrome, Tachyathetosis, Ekbom syndrome, Willis-Ekbom disease, Wittmaack-Ekbom syndrome</t>
+  </si>
+  <si>
+    <t>An irresistible urge to move the legs, usually accompanied by unpleasant sensations deep within the limbs. Symptoms typically begin or worsen during periods of rest or inactivity, are most pronounced in the evening or at night, and are temporarily relieved by movement such as walking or stretching. The disturbance often interferes with the initiation or maintenance of sleep.</t>
+  </si>
+  <si>
+    <t>Restless legs syndrome is a disorder characterized by aching or burning sensations in the legs that occur prior to sleep or may awaken the affected individuals. Complying with an irresistible urge to move the affected limbs brings temporary relief. Sleep may become disrupted, resulting in excessive daytime hypersomnolence.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012452</t>
+  </si>
+  <si>
+    <t>Restless legs (HP:0012452)</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>Insomnia, Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0100785, HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0100785, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Sleep onset insomnia, Maintenance insomnia, Terminal insomnia</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0031354, https://hpo.jax.org/browse/term/HP:0031355, https://hpo.jax.org/browse/term/HP:0031356</t>
+  </si>
+  <si>
+    <t>HP:0100785</t>
+  </si>
+  <si>
+    <t>Difficulty staying or falling asleep, Inability to sleep</t>
+  </si>
+  <si>
+    <t>Persistent difficulty in starting or maintaining sleep, or waking up earlier than desired, despite having adequate opportunities and conditions for sleep.</t>
+  </si>
+  <si>
+    <t>The individual subjectively reports the inability to sleep, which may manifest as prolonged sleep latency, frequent awakenings, or premature morning awakening. This phenomenon is often linked or associated with distress, reduced daytime functioning, or dissatisfaction with sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0100785</t>
+  </si>
+  <si>
+    <t>Insomnia (HP:0100785)</t>
+  </si>
+  <si>
+    <t>Hypersomnia</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Reduced consciousness, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system, Hypersomnia, Drowsiness</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0004372, HP:0011446, HP:0012638, HP:0000001, HP:0000707, HP:0100786, HP:0002329</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0004372, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0100786, https://hpo.jax.org/browse/term/HP:0002329</t>
+  </si>
+  <si>
+    <t>HP:0100786</t>
+  </si>
+  <si>
+    <t>Excessive sleepiness</t>
+  </si>
+  <si>
+    <t>Excessive sleepiness or feeling of sleepiness, or difficulty staying awake despite having had adequate sleep, which persists over several days.</t>
+  </si>
+  <si>
+    <t>Often results in excessive sleeping.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0100786</t>
+  </si>
+  <si>
+    <t>Hypersomnia (HP:0100786)</t>
+  </si>
+  <si>
+    <t>Hypnagogic hallucination</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Phenotypic abnormality, Hallucinations, Sleep disturbance, Abnormal experience of reality, Abnormality of mental function, Parasomnia, Hypnagogic hallucination, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from sleep to wakefulness, Sleep related hallucination</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0000118, HP:0000738, HP:0002360, HP:5200423, HP:0011446, HP:0025234, HP:0002519, HP:0000707, HP:0000001, HP:5200293, HP:5200296, HP:4000063</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0002519, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200296, https://hpo.jax.org/browse/term/HP:4000063</t>
+  </si>
+  <si>
+    <t>HP:0002519</t>
+  </si>
+  <si>
+    <t>Hallucinations while falling asleep</t>
+  </si>
+  <si>
+    <t>Hypnagogic hallucinations are brief hallucinations that occur when falling asleep.</t>
+  </si>
+  <si>
+    <t>Hypnagogic hallucinations are typically reported as visual, auditory, and tactile sensations. Visual phenomena often consist of kaleidoscopically changing patterns, shapes, and flashes of light. Lifelike and highly detailed images of animals, people, faces, and scenes are also common, displaying a wide range of vivid colors. Auditory experiences, although less frequent, may include voices, as well as sounds like a ringing phone, doorbell, or music. These auditory impressions may involve words, names, conversations, or environmental and animal sounds. Additionally, hypnagogic hallucinations can manifest as somatic experiences, which include bodily distortions, feelings of weightlessness, sensations of flying or falling, and an eerie sense of a presence in the room.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002519</t>
+  </si>
+  <si>
+    <t>Hypnagogic hallucination (HP:0002519)</t>
+  </si>
+  <si>
+    <t>Hypnopompic hallucination</t>
+  </si>
+  <si>
+    <t>Sleep related hallucination, Abnormal nervous system physiology, Phenotypic abnormality, Hypnopompic hallucination, Hallucinations, Sleep disturbance, Abnormal experience of reality, Abnormality of mental function, Parasomnia, Abnormality of the nervous system, All, Sleep-wake transition abnormality, Abnormal transition from wakefulness to sleep</t>
+  </si>
+  <si>
+    <t>HP:4000063, HP:0012638, HP:0000118, HP:0006896, HP:0000738, HP:0002360, HP:5200423, HP:0011446, HP:0025234, HP:0000707, HP:0000001, HP:5200293, HP:5200297</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0006896, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200297</t>
+  </si>
+  <si>
+    <t>HP:0006896</t>
+  </si>
+  <si>
+    <t>Hallucinations while awaking</t>
+  </si>
+  <si>
+    <t>Hallucinations occurring during the transition from sleep to wakefulness.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0006896</t>
+  </si>
+  <si>
+    <t>Hypnopompic hallucination (HP:0006896)</t>
+  </si>
+  <si>
+    <t>Fragmented sleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Fragmented sleep, Abnormality of the nervous system, All, Poor sleep, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0025199, HP:0000707, HP:0000001, HP:4000064, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025199, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0025199</t>
+  </si>
+  <si>
+    <t>Broken sleep, Fitful sleep, Interrupted sleep, Restless sleep</t>
+  </si>
+  <si>
+    <t>Sleep characterized by frequent interruptions, stopping and starting, which disrupt the normal progression of sleep stages.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025199</t>
+  </si>
+  <si>
+    <t>Fragmented sleep (HP:0025199)</t>
+  </si>
+  <si>
+    <t>Sleep terror</t>
+  </si>
+  <si>
+    <t>All, Abnormality of mental function, Abnormal nervous system physiology, Sleep disturbance, Arousal parasomnia, Abnormality of the nervous system, Parasomnia, NREM parasomnia, Phenotypic abnormality, Sleep terror</t>
+  </si>
+  <si>
+    <t>HP:0000001, HP:0011446, HP:0012638, HP:0002360, HP:0025184, HP:0000707, HP:0025234, HP:0025235, HP:0000118, HP:0030765</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0030765</t>
+  </si>
+  <si>
+    <t>HP:0030765</t>
+  </si>
+  <si>
+    <t>Night terror, Pavor nocturnus, Sleep terrors, Waking up screaming</t>
+  </si>
+  <si>
+    <t>Autonomic arousal, screaming, sweating, crying, outbursts during sleep, usually no recollection at the individual level; typically observed by others.</t>
+  </si>
+  <si>
+    <t>Sleep terrors are more common in children and are often observed by care-givers. Sleep terrors may occur in individuals who are sleepwalking.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0030765</t>
+  </si>
+  <si>
+    <t>Sleep terror (HP:0030765)</t>
+  </si>
+  <si>
+    <t>Short N1 sleep</t>
+  </si>
+  <si>
+    <t>Short NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system, Short N1 sleep</t>
+  </si>
+  <si>
+    <t>HP:5200362, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707, HP:5200304</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200304</t>
+  </si>
+  <si>
+    <t>HP:5200304</t>
+  </si>
+  <si>
+    <t>Short light sleep of NREM</t>
+  </si>
+  <si>
+    <t>Decreased duration of phase N1 of nonrapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>N1 sleep may be delayed or disrupted by a number of sleep disorders, including insomnia, hypersomnia, and movement disorders such as restless legs syndrome.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200304</t>
+  </si>
+  <si>
+    <t>Short N1 sleep (HP:5200304)</t>
+  </si>
+  <si>
+    <t>Abnormal rapid eye movement sleep</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal rapid eye movement sleep, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:0002494, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>REM parasomnia, Sleep onset rapid eye movement period, Short REM sleep, Prolonged REM sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:5200356, https://hpo.jax.org/browse/term/HP:5200360, https://hpo.jax.org/browse/term/HP:5200361</t>
+  </si>
+  <si>
+    <t>HP:0002494</t>
+  </si>
+  <si>
+    <t>Abnormal REM sleep</t>
+  </si>
+  <si>
+    <t>Abnormality of REM Sleep are phases of REM sleep are characterized by desynchronized EEG patterns, increases in heart rate and blood pressure, sympathetic activation, and a profound loss of muscle tone except for the eye and middle-ear muscles. There are also phases of rapid eye movements.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002494</t>
+  </si>
+  <si>
+    <t>Abnormal rapid eye movement sleep (HP:0002494)</t>
+  </si>
+  <si>
+    <t>Sleep walking</t>
+  </si>
+  <si>
+    <t>Abnormality of mental function, Abnormal nervous system physiology, Sleep disturbance, Abnormal movement during sleep, Abnormality of the nervous system, Parasomnia, NREM parasomnia, Sleep walking, Phenotypic abnormality, All</t>
+  </si>
+  <si>
+    <t>HP:0011446, HP:0012638, HP:0002360, HP:5200300, HP:0000707, HP:0025234, HP:0025235, HP:0025236, HP:0000118, HP:0000001</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0025236, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0000001</t>
+  </si>
+  <si>
+    <t>HP:0025236</t>
+  </si>
+  <si>
+    <t>Sleep walking, Somnambulism</t>
+  </si>
+  <si>
+    <t>Ambulation during sleep with lack awareness and limited or no recall of the event.</t>
+  </si>
+  <si>
+    <t>During an episode of sleepwalking, the somnambulating child typically appears clumsy and might perform unusual actions, such as urinating in a closet. Injuries can occur during sleepwalking, including falling downstairs or when leaving the house.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025236</t>
+  </si>
+  <si>
+    <t>Sleep walking (HP:0025236)</t>
+  </si>
+  <si>
+    <t>NREM parasomnia</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Parasomnia, All, NREM parasomnia, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0025234, HP:0000001, HP:0025235, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Sleep walking, Sleep terror, Sleep-related eating behavior, Sexsomnia</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025236, https://hpo.jax.org/browse/term/HP:0030765, https://hpo.jax.org/browse/term/HP:5200288, https://hpo.jax.org/browse/term/HP:5200294</t>
+  </si>
+  <si>
+    <t>HP:0025235</t>
+  </si>
+  <si>
+    <t>Disturbance in NREM, NREM parasomnia, Non-rapid eye movement parasomnia</t>
+  </si>
+  <si>
+    <t>A parasomnia that occurs during non-rapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>NREM parasomnias typically occur within a few hours after the onset of sleep. Episodes can last from a few minutes to as long as 30-40 minutes and are characterized by amnesia for the event.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025235</t>
+  </si>
+  <si>
+    <t>NREM parasomnia (HP:0025235)</t>
+  </si>
+  <si>
+    <t>Abnormal movement during sleep</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Parasomnia, All, Abnormal movement during sleep, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0000707, HP:0025234, HP:0000001, HP:5200300, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:5200300, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Bruxism, Restless legs, Sleep talking, Hypnic jerks, Sleep walking, REM sleep behavior disorder, Periodic limb movements of sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0003763, https://hpo.jax.org/browse/term/HP:0012452, https://hpo.jax.org/browse/term/HP:0025187, https://hpo.jax.org/browse/term/HP:0025189, https://hpo.jax.org/browse/term/HP:0025236, https://hpo.jax.org/browse/term/HP:5200291, https://hpo.jax.org/browse/term/HP:5200295</t>
+  </si>
+  <si>
+    <t>HP:5200300</t>
+  </si>
+  <si>
+    <t>Nocturnal myoclonus syndrome, Periodic limb movement disorder</t>
+  </si>
+  <si>
+    <t>Periodic Limb Movement Disorder, also known as Sleep-Related Myoclonus Syndrome or Nocturnal Myoclonus Syndrome, refers to the periodic and stereotypic movements of the legs or upper limbs during sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200300</t>
+  </si>
+  <si>
+    <t>Abnormal movement during sleep (HP:5200300)</t>
+  </si>
+  <si>
+    <t>Sleep attack</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Sleep disturbance, Sleep attack, Abnormality of the nervous system, Excessive sleep, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0002360, HP:0002330, HP:0000707, HP:0025288, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002330, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0025288, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>HP:0002330</t>
+  </si>
+  <si>
+    <t>Paroxysmal drowsiness, Sleep attacks</t>
+  </si>
+  <si>
+    <t>A sleep attack is a sudden, irresistable episode of sleep that occurs during waking hours.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002330</t>
+  </si>
+  <si>
+    <t>Sleep attack (HP:0002330)</t>
+  </si>
+  <si>
+    <t>Parasomnia</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Parasomnia, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0025234, HP:0000118, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Arousal parasomnia, NREM parasomnia, Sleep-wake transition abnormality, REM parasomnia, Abnormal movement during sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025184, https://hpo.jax.org/browse/term/HP:0025235, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:5200300</t>
+  </si>
+  <si>
+    <t>HP:0025234</t>
+  </si>
+  <si>
+    <t>Event that disrupts sleep</t>
+  </si>
+  <si>
+    <t>A clinically observable or self-reported abnormal behavior, experience, or physiological event that occurs in association with sleep, specific sleep stages, or sleep-wake transitions.</t>
+  </si>
+  <si>
+    <t>Parasomnias are distinct from the primary sleep disorders insomnia, hypersomnia, and circadian rhythm disturbances. They can involve motor, sensory, autonomic, or cognitive activation.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025234</t>
+  </si>
+  <si>
+    <t>Parasomnia (HP:0025234)</t>
+  </si>
+  <si>
+    <t>Sleep paralysis</t>
+  </si>
+  <si>
+    <t>REM parasomnia, Phenotypic abnormality, Sleep disturbance, Abnormal rapid eye movement sleep, Parasomnia, Sleep paralysis, Abnormality of mental function, All, Abnormality of the nervous system, Sleep-wake transition abnormality, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:5200299, HP:0000118, HP:0002360, HP:0002494, HP:0025234, HP:0025233, HP:0011446, HP:0000001, HP:0000707, HP:5200293, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200299, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0002494, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0025233, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200293, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Hypnagogic sleep paralysis, Hypnopompic sleep paralysis</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200352, https://hpo.jax.org/browse/term/HP:5200353</t>
+  </si>
+  <si>
+    <t>HP:0025233</t>
+  </si>
+  <si>
+    <t>Inability to move trunk and limbs and inability to speak during transition into or out of sleep; awareness is preserved and recall is present.</t>
+  </si>
+  <si>
+    <t>Sleep paralysis is associated with the transition from or to the REM stage of sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025233</t>
+  </si>
+  <si>
+    <t>Sleep paralysis (HP:0025233)</t>
+  </si>
+  <si>
+    <t>Sleep related hallucination</t>
+  </si>
+  <si>
+    <t>Abnormal nervous system physiology, Hallucinations, Phenotypic abnormality, Abnormal experience of reality, Sleep disturbance, Parasomnia, Abnormality of mental function, All, Abnormality of the nervous system, Sleep related hallucination, Sleep-wake transition abnormality</t>
+  </si>
+  <si>
+    <t>HP:0012638, HP:0000738, HP:0000118, HP:5200423, HP:0002360, HP:0025234, HP:0011446, HP:0000001, HP:0000707, HP:4000063, HP:5200293</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000738, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:5200423, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0025234, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:4000063, https://hpo.jax.org/browse/term/HP:5200293</t>
+  </si>
+  <si>
+    <t>Hypnagogic hallucination, Hypnopompic hallucination, Exploding head syndrome</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002519, https://hpo.jax.org/browse/term/HP:0006896, https://hpo.jax.org/browse/term/HP:5200290</t>
+  </si>
+  <si>
+    <t>HP:4000063</t>
+  </si>
+  <si>
+    <t>Hallucination during onset/falling asleep in any sensory modality, usually auditory, visual, or tactile.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:4000063</t>
+  </si>
+  <si>
+    <t>Sleep related hallucination (HP:4000063)</t>
+  </si>
+  <si>
+    <t>Poor sleep</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Poor sleep, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0011446, HP:4000064, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:4000064, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>Fragmented sleep, Non-restorative sleep</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0025199, https://hpo.jax.org/browse/term/HP:5200292</t>
+  </si>
+  <si>
+    <t>HP:4000064</t>
+  </si>
+  <si>
+    <t>Low-quality sleep, Poor sleep quality, Sleeping badly</t>
+  </si>
+  <si>
+    <t>Subjectively or observationally reported sleep that is insufficiently restorative, disrupted, or of inadequate quality, regardless of duration. Poor sleep may involve difficulty maintaining sleep continuity, frequent awakenings, a sense of light or shallow sleep, or waking up feeling unrefreshed. It is typically identified through self-report or clinical interview and not by objective measurements.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:4000064</t>
+  </si>
+  <si>
+    <t>Poor sleep (HP:4000064)</t>
+  </si>
+  <si>
+    <t>Short N3 sleep</t>
+  </si>
+  <si>
+    <t>Short NREM sleep, Short N3 sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200362, HP:5200309, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200309, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200309</t>
+  </si>
+  <si>
+    <t>Short slow wave sleep</t>
+  </si>
+  <si>
+    <t>Decreased duration of phase N3 of nonrapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>On an electroencephalogram (EEG), N3 sleep is characterized by a distinct pattern of synchronized brain waves. These brain waves give N3 the moniker "slow-wave sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200309</t>
+  </si>
+  <si>
+    <t>Short N3 sleep (HP:5200309)</t>
+  </si>
+  <si>
+    <t>Short N2 sleep</t>
+  </si>
+  <si>
+    <t>Short N2 sleep, Short NREM sleep, Abnormal sleep architecture, Sleep disturbance, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology, All, Abnormality of the nervous system</t>
+  </si>
+  <si>
+    <t>HP:5200307, HP:5200362, HP:5200298, HP:0002360, HP:0000118, HP:0011446, HP:0012638, HP:0000001, HP:0000707</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200307, https://hpo.jax.org/browse/term/HP:5200362, https://hpo.jax.org/browse/term/HP:5200298, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707</t>
+  </si>
+  <si>
+    <t>HP:5200307</t>
+  </si>
+  <si>
+    <t>Short subdued state of NREM</t>
+  </si>
+  <si>
+    <t>Decreased duration of phase N2 of nonrapid eye movement (NREM) sleep.</t>
+  </si>
+  <si>
+    <t>In the N2 sleep stage, muscles begin to relax, breathing and heart rate slow, and body temperature drops slightly. During this stage of the sleep cycle, your brain activity also slows down to help maintain sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200307</t>
+  </si>
+  <si>
+    <t>Short N2 sleep (HP:5200307)</t>
+  </si>
+  <si>
+    <t>Central sleep apnea</t>
+  </si>
+  <si>
+    <t>Phenotypic abnormality, Sleep disturbance, Abnormality of mental function, Sleep-related breathing disorders, Abnormal nervous system physiology, All, Abnormality of the nervous system, Central sleep apnea, Sleep apnea</t>
+  </si>
+  <si>
+    <t>HP:0000118, HP:0002360, HP:0011446, HP:5200283, HP:0012638, HP:0000001, HP:0000707, HP:0010536, HP:0010535</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0010536, https://hpo.jax.org/browse/term/HP:0010535</t>
+  </si>
+  <si>
+    <t>HP:0010536</t>
+  </si>
+  <si>
+    <t>Central sleep apnoea</t>
+  </si>
+  <si>
+    <t>Sleep apnea results from a temporary loss of the central drive to the muscles responsible for breathing.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0010536</t>
+  </si>
+  <si>
+    <t>Central sleep apnea (HP:0010536)</t>
+  </si>
+  <si>
+    <t>Sleep apnea</t>
+  </si>
+  <si>
+    <t>Sleep apnea, Abnormal nervous system physiology, Sleep disturbance, Abnormality of the nervous system, Sleep-related breathing disorders, All, Abnormality of mental function, Phenotypic abnormality</t>
+  </si>
+  <si>
+    <t>HP:0010535, HP:0012638, HP:0002360, HP:0000707, HP:5200283, HP:0000001, HP:0011446, HP:0000118</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0010535, https://hpo.jax.org/browse/term/HP:0012638, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:5200283, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0000118</t>
+  </si>
+  <si>
+    <t>Obstructive sleep apnea, Central sleep apnea</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0002870, https://hpo.jax.org/browse/term/HP:0010536</t>
+  </si>
+  <si>
+    <t>HP:0010535</t>
+  </si>
+  <si>
+    <t>Pauses in breathing while sleeping, Sleep apnea, Sleep apnoea</t>
+  </si>
+  <si>
+    <t>An intermittent cessation of airflow at the mouth and nose during sleep is known as sleep apnea. Apneas that last at least 10 seconds are considered significant, but individuals with sleep apnea may experience apneas lasting from 20 seconds up to 2 or 3 minutes. Patients may have up to 15 events per hour of sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0010535</t>
+  </si>
+  <si>
+    <t>Sleep apnea (HP:0010535)</t>
+  </si>
+  <si>
+    <t>Paradoxical insomnia</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Paradoxical insomnia, Phenotypic abnormality, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:5200305, HP:0000118, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:5200305, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>HP:5200305</t>
+  </si>
+  <si>
+    <t>Disturbance in perception related to sleep, Sleep misperception, Sleep state misperception</t>
+  </si>
+  <si>
+    <t>Paradoxical insomnia is a condition in which individuals with a normal or near-normal sleep macrostructure tend to severely underestimate the quantity and quality of their sleep.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:5200305</t>
+  </si>
+  <si>
+    <t>Paradoxical insomnia (HP:5200305)</t>
+  </si>
+  <si>
+    <t>Narcolepsy</t>
+  </si>
+  <si>
+    <t>Abnormality of the nervous system, All, Sleep disturbance, Phenotypic abnormality, Narcolepsy, Abnormality of mental function, Abnormal nervous system physiology</t>
+  </si>
+  <si>
+    <t>HP:0000707, HP:0000001, HP:0002360, HP:0000118, HP:0030050, HP:0011446, HP:0012638</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0000707, https://hpo.jax.org/browse/term/HP:0000001, https://hpo.jax.org/browse/term/HP:0002360, https://hpo.jax.org/browse/term/HP:0000118, https://hpo.jax.org/browse/term/HP:0030050, https://hpo.jax.org/browse/term/HP:0011446, https://hpo.jax.org/browse/term/HP:0012638</t>
+  </si>
+  <si>
+    <t>HP:0030050</t>
+  </si>
+  <si>
+    <t>An abnormal phenomenon characterized by a classic tetrad of excessive daytime sleepiness with irresistible sleep attacks, cataplexy (sudden bilateral loss of muscle tone), hypnagogic hallucinations, and sleep paralysis.</t>
+  </si>
+  <si>
+    <t>There are two distinct groups of patients with narcolepsy, ie, those having narcolepsy with cataplexy and those having narcolepsy without cataplexy.</t>
+  </si>
+  <si>
+    <t>https://hpo.jax.org/browse/term/HP:0030050</t>
+  </si>
+  <si>
+    <t>Narcolepsy (HP:0030050)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.00"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.00"/>
-      <color rgb="FFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2259,12 +2272,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="366092"/>
+        <fgColor rgb="FF366092"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="CC0000"/>
+        <fgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2280,74 +2293,395 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false" autoPageBreaks="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AT72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="10.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="33.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="169.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="19.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="203.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="14.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="43.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="22.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="12.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="12.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="9.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="255.0" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="15.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" width="13.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" width="18.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" width="21.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" width="27.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" width="9.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="9.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="14.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="13.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="13.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="24.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="20.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="16.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" width="16.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" width="12.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" width="11.42578125" outlineLevel="0" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="255" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="169.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="255" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="203.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="255" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="255" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,8 +2821,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2546,7 +2880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2605,7 +2939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2998,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2723,7 +3057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2782,7 +3116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
       </c>
@@ -2841,7 +3175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2900,7 +3234,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2959,7 +3293,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3018,7 +3352,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -3077,7 +3411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>141</v>
       </c>
@@ -3136,7 +3470,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>149</v>
       </c>
@@ -3195,7 +3529,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -3254,7 +3588,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -3313,7 +3647,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -3372,7 +3706,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -3431,7 +3765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>195</v>
       </c>
@@ -3490,7 +3824,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -3549,7 +3883,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -3608,7 +3942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -3667,7 +4001,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>237</v>
       </c>
@@ -3726,7 +4060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -3785,7 +4119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>253</v>
       </c>
@@ -3844,7 +4178,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>263</v>
       </c>
@@ -3903,7 +4237,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>272</v>
       </c>
@@ -3962,7 +4296,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>281</v>
       </c>
@@ -4021,7 +4355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>290</v>
       </c>
@@ -4080,7 +4414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>299</v>
       </c>
@@ -4139,7 +4473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -4198,7 +4532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>317</v>
       </c>
@@ -4257,7 +4591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>326</v>
       </c>
@@ -4316,7 +4650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>335</v>
       </c>
@@ -4375,7 +4709,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>344</v>
       </c>
@@ -4434,7 +4768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>353</v>
       </c>
@@ -4493,7 +4827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>362</v>
       </c>
@@ -4552,7 +4886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>372</v>
       </c>
@@ -4611,7 +4945,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>383</v>
       </c>
@@ -4670,7 +5004,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>395</v>
       </c>
@@ -4729,7 +5063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>404</v>
       </c>
@@ -4788,7 +5122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>414</v>
       </c>
@@ -4847,7 +5181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>423</v>
       </c>
@@ -4906,7 +5240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>431</v>
       </c>
@@ -4965,7 +5299,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>442</v>
       </c>
@@ -5024,7 +5358,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>451</v>
       </c>
@@ -5083,7 +5417,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>462</v>
       </c>
@@ -5142,7 +5476,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>471</v>
       </c>
@@ -5201,7 +5535,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>483</v>
       </c>
@@ -5260,7 +5594,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>494</v>
       </c>
@@ -5319,7 +5653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>504</v>
       </c>
@@ -5378,7 +5712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>514</v>
       </c>
@@ -5437,7 +5771,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>526</v>
       </c>
@@ -5496,7 +5830,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>536</v>
       </c>
@@ -5555,7 +5889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>546</v>
       </c>
@@ -5614,7 +5948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>555</v>
       </c>
@@ -5673,7 +6007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>564</v>
       </c>
@@ -5732,7 +6066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>574</v>
       </c>
@@ -5791,7 +6125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>584</v>
       </c>
@@ -5850,7 +6184,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>595</v>
       </c>
@@ -5909,7 +6243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>605</v>
       </c>
@@ -5968,7 +6302,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>617</v>
       </c>
@@ -6027,7 +6361,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>628</v>
       </c>
@@ -6086,7 +6420,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>637</v>
       </c>
@@ -6145,7 +6479,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>649</v>
       </c>
@@ -6204,7 +6538,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>660</v>
       </c>
@@ -6263,7 +6597,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>670</v>
       </c>
@@ -6322,7 +6656,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>681</v>
       </c>
@@ -6381,7 +6715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>691</v>
       </c>
@@ -6440,7 +6774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>701</v>
       </c>
@@ -6499,7 +6833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>710</v>
       </c>
@@ -6558,7 +6892,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>721</v>
       </c>
@@ -6617,7 +6951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>730</v>
       </c>
@@ -6677,11 +7011,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" useFirstPageNumber="false" blackAndWhite="false" orientation="portrait"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
 </worksheet>
 </file>